--- a/input_files/Behavior_Immune_data/AMA 27 GI tissues ConA 072513.xlsx
+++ b/input_files/Behavior_Immune_data/AMA 27 GI tissues ConA 072513.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10411"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josephboktor/Documents/NHP_MIA_Omics/input_files/Behavior_Immune_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA033DE9-9332-284F-8453-95DAECBE95DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="28755" windowHeight="14370"/>
+    <workbookView xWindow="41680" yWindow="1620" windowWidth="32260" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,12 +39,23 @@
     <sheet name="VEGF" sheetId="18" r:id="rId24"/>
     <sheet name="Sheet2" sheetId="19" r:id="rId25"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="141">
   <si>
     <t>G-CSF (18)</t>
   </si>
@@ -402,12 +419,72 @@
   <si>
     <t>Jejunum</t>
   </si>
+  <si>
+    <t>39813_Ileum</t>
+  </si>
+  <si>
+    <t>39827_Ileum</t>
+  </si>
+  <si>
+    <t>39988_Ileum</t>
+  </si>
+  <si>
+    <t>40318_Ileum</t>
+  </si>
+  <si>
+    <t>40360_Ileum</t>
+  </si>
+  <si>
+    <t>40476_Ileum</t>
+  </si>
+  <si>
+    <t>39673_Ileum</t>
+  </si>
+  <si>
+    <t>40212_Ileum</t>
+  </si>
+  <si>
+    <t>40302_Ileum</t>
+  </si>
+  <si>
+    <t>40390_Ileum</t>
+  </si>
+  <si>
+    <t>40395_Ileum</t>
+  </si>
+  <si>
+    <t>40479_Ileum</t>
+  </si>
+  <si>
+    <t>40355_Ileum</t>
+  </si>
+  <si>
+    <t>40440_Ileum</t>
+  </si>
+  <si>
+    <t>40473_Ileum</t>
+  </si>
+  <si>
+    <t>40478_Ileum</t>
+  </si>
+  <si>
+    <t>39689_Ileum</t>
+  </si>
+  <si>
+    <t>40295_Ileum</t>
+  </si>
+  <si>
+    <t>40482_Ileum</t>
+  </si>
+  <si>
+    <t>Ileum</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -689,6 +766,10 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -704,16 +785,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -760,7 +845,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -792,9 +877,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -826,6 +929,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1001,23 +1122,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB81"/>
+  <dimension ref="A1:AB80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>103</v>
       </c>
@@ -1103,7 +1224,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>39813</v>
       </c>
@@ -1128,7 +1249,7 @@
       <c r="H2">
         <v>67.900000000000006</v>
       </c>
-      <c r="I2" s="28">
+      <c r="I2" s="23">
         <v>0.21</v>
       </c>
       <c r="J2">
@@ -1137,13 +1258,13 @@
       <c r="K2">
         <v>15.86</v>
       </c>
-      <c r="L2" s="28">
+      <c r="L2" s="23">
         <v>1.55</v>
       </c>
-      <c r="M2" s="28">
+      <c r="M2" s="23">
         <v>0.75</v>
       </c>
-      <c r="N2" s="28">
+      <c r="N2" s="23">
         <v>0.8</v>
       </c>
       <c r="O2">
@@ -1158,25 +1279,25 @@
       <c r="R2">
         <v>4.05</v>
       </c>
-      <c r="S2" s="28">
+      <c r="S2" s="23">
         <v>0.3</v>
       </c>
-      <c r="T2" s="28">
+      <c r="T2" s="23">
         <v>1.59</v>
       </c>
-      <c r="U2" s="28">
+      <c r="U2" s="23">
         <v>3.05</v>
       </c>
       <c r="V2">
         <v>5.58</v>
       </c>
-      <c r="W2" s="28">
+      <c r="W2" s="23">
         <v>2.4500000000000002</v>
       </c>
-      <c r="X2" s="28">
+      <c r="X2" s="23">
         <v>0.8</v>
       </c>
-      <c r="Y2" s="28">
+      <c r="Y2" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="Z2">
@@ -1185,11 +1306,11 @@
       <c r="AA2">
         <v>4.32</v>
       </c>
-      <c r="AB2" s="28">
+      <c r="AB2" s="23">
         <v>6.8</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>39827</v>
       </c>
@@ -1275,7 +1396,7 @@
         <v>361.9</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>39988</v>
       </c>
@@ -1300,7 +1421,7 @@
       <c r="H4">
         <v>89.25</v>
       </c>
-      <c r="I4" s="28">
+      <c r="I4" s="23">
         <v>1.1000000000000001</v>
       </c>
       <c r="J4">
@@ -1309,13 +1430,13 @@
       <c r="K4">
         <v>36.869999999999997</v>
       </c>
-      <c r="L4" s="28">
+      <c r="L4" s="23">
         <v>1.87</v>
       </c>
-      <c r="M4" s="28">
+      <c r="M4" s="23">
         <v>0.28999999999999998</v>
       </c>
-      <c r="N4" s="28">
+      <c r="N4" s="23">
         <v>1.94</v>
       </c>
       <c r="O4">
@@ -1336,7 +1457,7 @@
       <c r="T4">
         <v>4</v>
       </c>
-      <c r="U4" s="28">
+      <c r="U4" s="23">
         <v>3.05</v>
       </c>
       <c r="V4">
@@ -1348,7 +1469,7 @@
       <c r="X4">
         <v>6.66</v>
       </c>
-      <c r="Y4" s="28">
+      <c r="Y4" s="23">
         <v>1.62</v>
       </c>
       <c r="Z4">
@@ -1361,7 +1482,7 @@
         <v>7.74</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>40318</v>
       </c>
@@ -1422,7 +1543,7 @@
       <c r="T5">
         <v>145.86000000000001</v>
       </c>
-      <c r="U5" s="28">
+      <c r="U5" s="23">
         <v>5.95</v>
       </c>
       <c r="V5">
@@ -1447,7 +1568,7 @@
         <v>375.94</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>40360</v>
       </c>
@@ -1472,7 +1593,7 @@
       <c r="H6">
         <v>330.58</v>
       </c>
-      <c r="I6" s="28">
+      <c r="I6" s="23">
         <v>1.88</v>
       </c>
       <c r="J6">
@@ -1508,7 +1629,7 @@
       <c r="T6">
         <v>14.16</v>
       </c>
-      <c r="U6" s="28">
+      <c r="U6" s="23">
         <v>1.68</v>
       </c>
       <c r="V6">
@@ -1533,7 +1654,7 @@
         <v>61.29</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>40476</v>
       </c>
@@ -1549,77 +1670,77 @@
       <c r="E7" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="23">
         <v>1.05</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="23">
         <v>0.9</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="23">
         <v>0.8</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="23">
         <v>0.6</v>
       </c>
-      <c r="J7" s="28">
+      <c r="J7" s="23">
         <v>1.2</v>
       </c>
-      <c r="K7" s="28">
+      <c r="K7" s="23">
         <v>0.01</v>
       </c>
-      <c r="L7" s="28">
+      <c r="L7" s="23">
         <v>1.55</v>
       </c>
-      <c r="M7" s="28">
+      <c r="M7" s="23">
         <v>0.75</v>
       </c>
-      <c r="N7" s="28">
+      <c r="N7" s="23">
         <v>0.8</v>
       </c>
-      <c r="O7" s="28">
+      <c r="O7" s="23">
         <v>0.55000000000000004</v>
       </c>
-      <c r="P7" s="28">
+      <c r="P7" s="23">
         <v>3.2</v>
       </c>
-      <c r="Q7" s="28">
+      <c r="Q7" s="23">
         <v>0.75</v>
       </c>
-      <c r="R7" s="28">
+      <c r="R7" s="23">
         <v>2.9</v>
       </c>
-      <c r="S7" s="28">
+      <c r="S7" s="23">
         <v>0.25</v>
       </c>
-      <c r="T7" s="28">
+      <c r="T7" s="23">
         <v>0.65</v>
       </c>
-      <c r="U7" s="28">
+      <c r="U7" s="23">
         <v>3.05</v>
       </c>
-      <c r="V7" s="28">
+      <c r="V7" s="23">
         <v>1.55</v>
       </c>
-      <c r="W7" s="28">
+      <c r="W7" s="23">
         <v>2.4500000000000002</v>
       </c>
-      <c r="X7" s="28">
+      <c r="X7" s="23">
         <v>0.8</v>
       </c>
-      <c r="Y7" s="28">
+      <c r="Y7" s="23">
         <v>0.55000000000000004</v>
       </c>
-      <c r="Z7" s="28">
+      <c r="Z7" s="23">
         <v>0.8</v>
       </c>
-      <c r="AA7" s="28">
+      <c r="AA7" s="23">
         <v>1.05</v>
       </c>
-      <c r="AB7" s="28">
+      <c r="AB7" s="23">
         <v>6.8</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>39673</v>
       </c>
@@ -1644,7 +1765,7 @@
       <c r="H8">
         <v>26.56</v>
       </c>
-      <c r="I8" s="28">
+      <c r="I8" s="23">
         <v>0.59</v>
       </c>
       <c r="J8">
@@ -1653,13 +1774,13 @@
       <c r="K8">
         <v>5.29</v>
       </c>
-      <c r="L8" s="28">
+      <c r="L8" s="23">
         <v>3.42</v>
       </c>
-      <c r="M8" s="28">
+      <c r="M8" s="23">
         <v>0.85</v>
       </c>
-      <c r="N8" s="28">
+      <c r="N8" s="23">
         <v>1.07</v>
       </c>
       <c r="O8">
@@ -1674,25 +1795,25 @@
       <c r="R8">
         <v>10.41</v>
       </c>
-      <c r="S8" s="28">
+      <c r="S8" s="23">
         <v>0.76</v>
       </c>
-      <c r="T8" s="28">
+      <c r="T8" s="23">
         <v>1.59</v>
       </c>
-      <c r="U8" s="28">
+      <c r="U8" s="23">
         <v>3.05</v>
       </c>
       <c r="V8">
         <v>10.55</v>
       </c>
-      <c r="W8" s="28">
+      <c r="W8" s="23">
         <v>0.8</v>
       </c>
       <c r="X8">
         <v>4.26</v>
       </c>
-      <c r="Y8" s="28">
+      <c r="Y8" s="23">
         <v>1.18</v>
       </c>
       <c r="Z8">
@@ -1701,11 +1822,11 @@
       <c r="AA8">
         <v>9.6999999999999993</v>
       </c>
-      <c r="AB8" s="28">
+      <c r="AB8" s="23">
         <v>6.8</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>40212</v>
       </c>
@@ -1742,7 +1863,7 @@
       <c r="L9">
         <v>10.029999999999999</v>
       </c>
-      <c r="M9" s="28">
+      <c r="M9" s="23">
         <v>1.8</v>
       </c>
       <c r="N9">
@@ -1766,7 +1887,7 @@
       <c r="T9">
         <v>14.36</v>
       </c>
-      <c r="U9" s="28">
+      <c r="U9" s="23">
         <v>3.05</v>
       </c>
       <c r="V9">
@@ -1778,7 +1899,7 @@
       <c r="X9">
         <v>20.67</v>
       </c>
-      <c r="Y9" s="28">
+      <c r="Y9" s="23">
         <v>2.0299999999999998</v>
       </c>
       <c r="Z9">
@@ -1791,7 +1912,7 @@
         <v>55.09</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>40302</v>
       </c>
@@ -1877,7 +1998,7 @@
         <v>227.23</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>40390</v>
       </c>
@@ -1938,7 +2059,7 @@
       <c r="T11">
         <v>133.08000000000001</v>
       </c>
-      <c r="U11" s="28">
+      <c r="U11" s="23">
         <v>2.94</v>
       </c>
       <c r="V11">
@@ -1963,7 +2084,7 @@
         <v>201.09</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>40395</v>
       </c>
@@ -1985,7 +2106,7 @@
       <c r="G12">
         <v>1100.8399999999999</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="24">
         <v>13171.47</v>
       </c>
       <c r="I12">
@@ -2049,7 +2170,7 @@
         <v>480.52</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="15.75" thickBot="1">
+    <row r="13" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>40479</v>
       </c>
@@ -2110,7 +2231,7 @@
       <c r="T13">
         <v>70.19</v>
       </c>
-      <c r="U13" s="28">
+      <c r="U13" s="23">
         <v>7.04</v>
       </c>
       <c r="V13">
@@ -2135,7 +2256,7 @@
         <v>269.43</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>40335</v>
       </c>
@@ -2221,7 +2342,7 @@
         <v>413.9</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>40440</v>
       </c>
@@ -2246,7 +2367,7 @@
       <c r="H15">
         <v>24.31</v>
       </c>
-      <c r="I15" s="28">
+      <c r="I15" s="23">
         <v>0.21</v>
       </c>
       <c r="J15">
@@ -2255,19 +2376,19 @@
       <c r="K15">
         <v>4.18</v>
       </c>
-      <c r="L15" s="28">
+      <c r="L15" s="23">
         <v>0.23</v>
       </c>
-      <c r="M15" s="28">
+      <c r="M15" s="23">
         <v>0.75</v>
       </c>
-      <c r="N15" s="28">
+      <c r="N15" s="23">
         <v>0.41</v>
       </c>
       <c r="O15">
         <v>9.27</v>
       </c>
-      <c r="P15" s="28">
+      <c r="P15" s="23">
         <v>2.72</v>
       </c>
       <c r="Q15">
@@ -2276,25 +2397,25 @@
       <c r="R15">
         <v>11.72</v>
       </c>
-      <c r="S15" s="28">
+      <c r="S15" s="23">
         <v>1.61</v>
       </c>
-      <c r="T15" s="28">
+      <c r="T15" s="23">
         <v>0.85</v>
       </c>
-      <c r="U15" s="28">
+      <c r="U15" s="23">
         <v>3.05</v>
       </c>
       <c r="V15">
         <v>12.4</v>
       </c>
-      <c r="W15" s="28">
+      <c r="W15" s="23">
         <v>2.4500000000000002</v>
       </c>
       <c r="X15">
         <v>3.27</v>
       </c>
-      <c r="Y15" s="28">
+      <c r="Y15" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="Z15">
@@ -2303,11 +2424,11 @@
       <c r="AA15">
         <v>8.64</v>
       </c>
-      <c r="AB15" s="28">
+      <c r="AB15" s="23">
         <v>6.8</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>40473</v>
       </c>
@@ -2326,34 +2447,34 @@
       <c r="F16">
         <v>7.08</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="25">
         <v>0.35</v>
       </c>
       <c r="H16">
         <v>12.59</v>
       </c>
-      <c r="I16" s="28">
+      <c r="I16" s="23">
         <v>0.6</v>
       </c>
       <c r="J16">
         <v>8.58</v>
       </c>
-      <c r="K16" s="28">
+      <c r="K16" s="23">
         <v>0.43</v>
       </c>
-      <c r="L16" s="28">
+      <c r="L16" s="23">
         <v>1.87</v>
       </c>
-      <c r="M16" s="28">
+      <c r="M16" s="23">
         <v>0.75</v>
       </c>
-      <c r="N16" s="28">
+      <c r="N16" s="23">
         <v>0.8</v>
       </c>
-      <c r="O16" s="28">
+      <c r="O16" s="23">
         <v>1.03</v>
       </c>
-      <c r="P16" s="28">
+      <c r="P16" s="23">
         <v>3.2</v>
       </c>
       <c r="Q16">
@@ -2362,25 +2483,25 @@
       <c r="R16">
         <v>7.21</v>
       </c>
-      <c r="S16" s="28">
+      <c r="S16" s="23">
         <v>1.19</v>
       </c>
-      <c r="T16" s="28">
+      <c r="T16" s="23">
         <v>0.2</v>
       </c>
-      <c r="U16" s="28">
+      <c r="U16" s="23">
         <v>3.05</v>
       </c>
       <c r="V16">
         <v>3.35</v>
       </c>
-      <c r="W16" s="28">
+      <c r="W16" s="23">
         <v>2.4500000000000002</v>
       </c>
-      <c r="X16" s="28">
+      <c r="X16" s="23">
         <v>0.8</v>
       </c>
-      <c r="Y16" s="28">
+      <c r="Y16" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="Z16">
@@ -2389,11 +2510,11 @@
       <c r="AA16">
         <v>8.64</v>
       </c>
-      <c r="AB16" s="28">
+      <c r="AB16" s="23">
         <v>6.8</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>40478</v>
       </c>
@@ -2479,7 +2600,7 @@
         <v>223.38</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>39689</v>
       </c>
@@ -2540,7 +2661,7 @@
       <c r="T18">
         <v>84.95</v>
       </c>
-      <c r="U18" s="28">
+      <c r="U18" s="23">
         <v>8.75</v>
       </c>
       <c r="V18">
@@ -2565,7 +2686,7 @@
         <v>384.48</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>40228</v>
       </c>
@@ -2626,7 +2747,7 @@
       <c r="T19">
         <v>128.21</v>
       </c>
-      <c r="U19" s="28">
+      <c r="U19" s="23">
         <v>11.83</v>
       </c>
       <c r="V19">
@@ -2651,7 +2772,7 @@
         <v>302.5</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>40295</v>
       </c>
@@ -2712,7 +2833,7 @@
       <c r="T20">
         <v>93.31</v>
       </c>
-      <c r="U20" s="28">
+      <c r="U20" s="23">
         <v>3.18</v>
       </c>
       <c r="V20">
@@ -2737,7 +2858,7 @@
         <v>219.5</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="15.75" thickBot="1">
+    <row r="21" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>40482</v>
       </c>
@@ -2823,7 +2944,7 @@
         <v>327.61</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>39813</v>
       </c>
@@ -2834,10 +2955,10 @@
         <v>110</v>
       </c>
       <c r="D22" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="F22">
         <v>98.98</v>
@@ -2909,7 +3030,7 @@
         <v>252.36</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>39827</v>
       </c>
@@ -2920,10 +3041,10 @@
         <v>110</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="F23">
         <v>26.01</v>
@@ -2970,7 +3091,7 @@
       <c r="T23">
         <v>93.22</v>
       </c>
-      <c r="U23" s="28">
+      <c r="U23" s="23">
         <v>10.61</v>
       </c>
       <c r="V23">
@@ -2995,7 +3116,7 @@
         <v>184.81</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>39988</v>
       </c>
@@ -3006,10 +3127,10 @@
         <v>110</v>
       </c>
       <c r="D24" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="F24">
         <v>22.08</v>
@@ -3020,7 +3141,7 @@
       <c r="H24">
         <v>343.34</v>
       </c>
-      <c r="I24" s="28">
+      <c r="I24" s="23">
         <v>1.95</v>
       </c>
       <c r="J24">
@@ -3056,7 +3177,7 @@
       <c r="T24">
         <v>44.1</v>
       </c>
-      <c r="U24" s="28">
+      <c r="U24" s="23">
         <v>0.85</v>
       </c>
       <c r="V24">
@@ -3081,7 +3202,7 @@
         <v>103.45</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>40318</v>
       </c>
@@ -3092,10 +3213,10 @@
         <v>110</v>
       </c>
       <c r="D25" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="E25" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="F25">
         <v>45.09</v>
@@ -3142,7 +3263,7 @@
       <c r="T25">
         <v>84.03</v>
       </c>
-      <c r="U25" s="28">
+      <c r="U25" s="23">
         <v>3.66</v>
       </c>
       <c r="V25">
@@ -3167,7 +3288,7 @@
         <v>302.5</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>40360</v>
       </c>
@@ -3178,10 +3299,10 @@
         <v>110</v>
       </c>
       <c r="D26" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="E26" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="F26">
         <v>7.08</v>
@@ -3192,7 +3313,7 @@
       <c r="H26">
         <v>22.04</v>
       </c>
-      <c r="I26" s="28">
+      <c r="I26" s="23">
         <v>0.6</v>
       </c>
       <c r="J26">
@@ -3201,19 +3322,19 @@
       <c r="K26">
         <v>11.94</v>
       </c>
-      <c r="L26" s="28">
+      <c r="L26" s="23">
         <v>3.42</v>
       </c>
-      <c r="M26" s="28">
+      <c r="M26" s="23">
         <v>0.28999999999999998</v>
       </c>
-      <c r="N26" s="28">
+      <c r="N26" s="23">
         <v>0.8</v>
       </c>
       <c r="O26">
         <v>6.54</v>
       </c>
-      <c r="P26" s="28">
+      <c r="P26" s="23">
         <v>2.72</v>
       </c>
       <c r="Q26">
@@ -3222,25 +3343,25 @@
       <c r="R26">
         <v>12.13</v>
       </c>
-      <c r="S26" s="28">
+      <c r="S26" s="23">
         <v>0.3</v>
       </c>
-      <c r="T26" s="28">
+      <c r="T26" s="23">
         <v>1.22</v>
       </c>
-      <c r="U26" s="28">
+      <c r="U26" s="23">
         <v>3.05</v>
       </c>
       <c r="V26">
         <v>12.84</v>
       </c>
-      <c r="W26" s="28">
+      <c r="W26" s="23">
         <v>2.4500000000000002</v>
       </c>
-      <c r="X26" s="28">
+      <c r="X26" s="23">
         <v>2.08</v>
       </c>
-      <c r="Y26" s="28">
+      <c r="Y26" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="Z26">
@@ -3249,11 +3370,11 @@
       <c r="AA26">
         <v>4.32</v>
       </c>
-      <c r="AB26" s="28">
+      <c r="AB26" s="23">
         <v>6.8</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>40476</v>
       </c>
@@ -3264,10 +3385,10 @@
         <v>110</v>
       </c>
       <c r="D27" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="E27" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="F27">
         <v>422.99</v>
@@ -3339,7 +3460,7 @@
         <v>529.84</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>39673</v>
       </c>
@@ -3350,42 +3471,42 @@
         <v>107</v>
       </c>
       <c r="D28" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="F28">
         <v>7.87</v>
       </c>
-      <c r="G28" s="30">
+      <c r="G28" s="25">
         <v>0.03</v>
       </c>
-      <c r="H28" s="31">
+      <c r="H28" s="26">
         <v>7.48</v>
       </c>
-      <c r="I28" s="28">
+      <c r="I28" s="23">
         <v>0.06</v>
       </c>
       <c r="J28">
         <v>13.75</v>
       </c>
-      <c r="K28" s="28">
+      <c r="K28" s="23">
         <v>1.05</v>
       </c>
       <c r="L28">
         <v>19.16</v>
       </c>
-      <c r="M28" s="28">
+      <c r="M28" s="23">
         <v>1.8</v>
       </c>
-      <c r="N28" s="28">
+      <c r="N28" s="23">
         <v>0.8</v>
       </c>
-      <c r="O28" s="28">
+      <c r="O28" s="23">
         <v>0.02</v>
       </c>
-      <c r="P28" s="28">
+      <c r="P28" s="23">
         <v>3.2</v>
       </c>
       <c r="Q28">
@@ -3394,25 +3515,25 @@
       <c r="R28">
         <v>12.13</v>
       </c>
-      <c r="S28" s="28">
+      <c r="S28" s="23">
         <v>1.4</v>
       </c>
-      <c r="T28" s="28">
+      <c r="T28" s="23">
         <v>0.34</v>
       </c>
-      <c r="U28" s="28">
+      <c r="U28" s="23">
         <v>3.05</v>
       </c>
       <c r="V28">
         <v>3</v>
       </c>
-      <c r="W28" s="28">
+      <c r="W28" s="23">
         <v>3.97</v>
       </c>
-      <c r="X28" s="28">
+      <c r="X28" s="23">
         <v>0.8</v>
       </c>
-      <c r="Y28" s="28">
+      <c r="Y28" s="23">
         <v>0.19</v>
       </c>
       <c r="Z28">
@@ -3425,7 +3546,7 @@
         <v>15.09</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>40212</v>
       </c>
@@ -3436,10 +3557,10 @@
         <v>107</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="F29">
         <v>10.92</v>
@@ -3450,7 +3571,7 @@
       <c r="H29">
         <v>782.13</v>
       </c>
-      <c r="I29" s="28">
+      <c r="I29" s="23">
         <v>1.38</v>
       </c>
       <c r="J29">
@@ -3480,13 +3601,13 @@
       <c r="R29">
         <v>17.86</v>
       </c>
-      <c r="S29" s="28">
+      <c r="S29" s="23">
         <v>2.02</v>
       </c>
       <c r="T29">
         <v>26.55</v>
       </c>
-      <c r="U29" s="28">
+      <c r="U29" s="23">
         <v>3.05</v>
       </c>
       <c r="V29">
@@ -3498,7 +3619,7 @@
       <c r="X29">
         <v>19.510000000000002</v>
       </c>
-      <c r="Y29" s="28">
+      <c r="Y29" s="23">
         <v>0.19</v>
       </c>
       <c r="Z29">
@@ -3511,7 +3632,7 @@
         <v>50.82</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>40302</v>
       </c>
@@ -3522,10 +3643,10 @@
         <v>107</v>
       </c>
       <c r="D30" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="F30">
         <v>29.84</v>
@@ -3572,7 +3693,7 @@
       <c r="T30">
         <v>55.52</v>
       </c>
-      <c r="U30" s="28">
+      <c r="U30" s="23">
         <v>10.199999999999999</v>
       </c>
       <c r="V30">
@@ -3597,7 +3718,7 @@
         <v>123.07</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>40390</v>
       </c>
@@ -3608,10 +3729,10 @@
         <v>107</v>
       </c>
       <c r="D31" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="E31" t="s">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="F31">
         <v>36.07</v>
@@ -3634,7 +3755,7 @@
       <c r="L31">
         <v>65.510000000000005</v>
       </c>
-      <c r="M31" s="28">
+      <c r="M31" s="23">
         <v>1.8</v>
       </c>
       <c r="N31">
@@ -3658,7 +3779,7 @@
       <c r="T31">
         <v>47.18</v>
       </c>
-      <c r="U31" s="28">
+      <c r="U31" s="23">
         <v>1.68</v>
       </c>
       <c r="V31">
@@ -3683,7 +3804,7 @@
         <v>106.8</v>
       </c>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>40395</v>
       </c>
@@ -3694,10 +3815,10 @@
         <v>107</v>
       </c>
       <c r="D32" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="E32" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="F32">
         <v>81.540000000000006</v>
@@ -3705,7 +3826,7 @@
       <c r="G32">
         <v>1971.39</v>
       </c>
-      <c r="H32" s="29">
+      <c r="H32" s="24">
         <v>10640.47</v>
       </c>
       <c r="I32">
@@ -3769,7 +3890,7 @@
         <v>515.51</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="15.75" thickBot="1">
+    <row r="33" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>40479</v>
       </c>
@@ -3780,10 +3901,10 @@
         <v>107</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="F33">
         <v>6.27</v>
@@ -3794,10 +3915,10 @@
       <c r="H33">
         <v>341.38</v>
       </c>
-      <c r="I33" s="28">
+      <c r="I33" s="23">
         <v>0.06</v>
       </c>
-      <c r="J33" s="28">
+      <c r="J33" s="23">
         <v>1.2</v>
       </c>
       <c r="K33">
@@ -3806,10 +3927,10 @@
       <c r="L33">
         <v>22.6</v>
       </c>
-      <c r="M33" s="28">
+      <c r="M33" s="23">
         <v>2.2400000000000002</v>
       </c>
-      <c r="N33" s="28">
+      <c r="N33" s="23">
         <v>2.2200000000000002</v>
       </c>
       <c r="O33">
@@ -3824,13 +3945,13 @@
       <c r="R33">
         <v>16.97</v>
       </c>
-      <c r="S33" s="28">
+      <c r="S33" s="23">
         <v>1.19</v>
       </c>
       <c r="T33">
         <v>9.1</v>
       </c>
-      <c r="U33" s="28">
+      <c r="U33" s="23">
         <v>3.05</v>
       </c>
       <c r="V33">
@@ -3842,7 +3963,7 @@
       <c r="X33">
         <v>20.28</v>
       </c>
-      <c r="Y33" s="28">
+      <c r="Y33" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="Z33">
@@ -3855,7 +3976,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>40335</v>
       </c>
@@ -3866,10 +3987,10 @@
         <v>111</v>
       </c>
       <c r="D34" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="E34" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="F34">
         <v>23.4</v>
@@ -3916,7 +4037,7 @@
       <c r="T34">
         <v>81.84</v>
       </c>
-      <c r="U34" s="28">
+      <c r="U34" s="23">
         <v>5.05</v>
       </c>
       <c r="V34">
@@ -3941,7 +4062,7 @@
         <v>193.01</v>
       </c>
     </row>
-    <row r="35" spans="1:28">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>40440</v>
       </c>
@@ -3952,10 +4073,10 @@
         <v>111</v>
       </c>
       <c r="D35" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="E35" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="F35">
         <v>12.39</v>
@@ -3966,7 +4087,7 @@
       <c r="H35">
         <v>1059.02</v>
       </c>
-      <c r="I35" s="28">
+      <c r="I35" s="23">
         <v>2.1</v>
       </c>
       <c r="J35">
@@ -4002,7 +4123,7 @@
       <c r="T35">
         <v>69.66</v>
       </c>
-      <c r="U35" s="28">
+      <c r="U35" s="23">
         <v>5.95</v>
       </c>
       <c r="V35">
@@ -4027,7 +4148,7 @@
         <v>176.49</v>
       </c>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>40473</v>
       </c>
@@ -4038,10 +4159,10 @@
         <v>111</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="E36" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="F36">
         <v>42.12</v>
@@ -4088,7 +4209,7 @@
       <c r="T36">
         <v>145.27000000000001</v>
       </c>
-      <c r="U36" s="28">
+      <c r="U36" s="23">
         <v>10</v>
       </c>
       <c r="V36">
@@ -4113,7 +4234,7 @@
         <v>318.56</v>
       </c>
     </row>
-    <row r="37" spans="1:28">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>40478</v>
       </c>
@@ -4124,10 +4245,10 @@
         <v>111</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="E37" t="s">
-        <v>63</v>
+        <v>136</v>
       </c>
       <c r="F37">
         <v>19.399999999999999</v>
@@ -4138,7 +4259,7 @@
       <c r="H37">
         <v>1180.8499999999999</v>
       </c>
-      <c r="I37" s="28">
+      <c r="I37" s="23">
         <v>2.2400000000000002</v>
       </c>
       <c r="J37">
@@ -4174,7 +4295,7 @@
       <c r="T37">
         <v>39.89</v>
       </c>
-      <c r="U37" s="28">
+      <c r="U37" s="23">
         <v>4.59</v>
       </c>
       <c r="V37">
@@ -4199,7 +4320,7 @@
         <v>155.03</v>
       </c>
     </row>
-    <row r="38" spans="1:28">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>40295</v>
       </c>
@@ -4210,10 +4331,10 @@
         <v>109</v>
       </c>
       <c r="D38" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="E38" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="F38">
         <v>111.86</v>
@@ -4221,7 +4342,7 @@
       <c r="G38">
         <v>5942.29</v>
       </c>
-      <c r="H38" s="29">
+      <c r="H38" s="24">
         <v>15539.91</v>
       </c>
       <c r="I38">
@@ -4285,7 +4406,7 @@
         <v>605.04999999999995</v>
       </c>
     </row>
-    <row r="39" spans="1:28">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>39689</v>
       </c>
@@ -4296,10 +4417,10 @@
         <v>109</v>
       </c>
       <c r="D39" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="E39" t="s">
-        <v>51</v>
+        <v>138</v>
       </c>
       <c r="F39">
         <v>68.47</v>
@@ -4307,7 +4428,7 @@
       <c r="G39">
         <v>1731.88</v>
       </c>
-      <c r="H39" s="29">
+      <c r="H39" s="24">
         <v>10437.790000000001</v>
       </c>
       <c r="I39">
@@ -4371,7 +4492,7 @@
         <v>559.97</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="15.75" thickBot="1">
+    <row r="40" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>40482</v>
       </c>
@@ -4382,10 +4503,10 @@
         <v>112</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>67</v>
+        <v>139</v>
       </c>
       <c r="F40">
         <v>39.11</v>
@@ -4432,7 +4553,7 @@
       <c r="T40">
         <v>230.44</v>
       </c>
-      <c r="U40" s="28">
+      <c r="U40" s="23">
         <v>9.58</v>
       </c>
       <c r="V40">
@@ -4457,7 +4578,7 @@
         <v>290.83999999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:28">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39813</v>
       </c>
@@ -4468,7 +4589,7 @@
         <v>110</v>
       </c>
       <c r="D41" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E41" t="s">
         <v>32</v>
@@ -4518,7 +4639,7 @@
       <c r="T41">
         <v>110.81</v>
       </c>
-      <c r="U41" s="28">
+      <c r="U41" s="23">
         <v>8.11</v>
       </c>
       <c r="V41">
@@ -4543,7 +4664,7 @@
         <v>198.41</v>
       </c>
     </row>
-    <row r="42" spans="1:28">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>39827</v>
       </c>
@@ -4554,7 +4675,7 @@
         <v>110</v>
       </c>
       <c r="D42" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E42" t="s">
         <v>60</v>
@@ -4629,7 +4750,7 @@
         <v>220.8</v>
       </c>
     </row>
-    <row r="43" spans="1:28">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>39988</v>
       </c>
@@ -4640,7 +4761,7 @@
         <v>110</v>
       </c>
       <c r="D43" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E43" t="s">
         <v>36</v>
@@ -4715,7 +4836,7 @@
         <v>254.82</v>
       </c>
     </row>
-    <row r="44" spans="1:28">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>40318</v>
       </c>
@@ -4726,7 +4847,7 @@
         <v>110</v>
       </c>
       <c r="D44" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E44" t="s">
         <v>80</v>
@@ -4776,7 +4897,7 @@
       <c r="T44">
         <v>191.44</v>
       </c>
-      <c r="U44" s="28">
+      <c r="U44" s="23">
         <v>11.43</v>
       </c>
       <c r="V44">
@@ -4801,7 +4922,7 @@
         <v>297.86</v>
       </c>
     </row>
-    <row r="45" spans="1:28">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>40360</v>
       </c>
@@ -4812,7 +4933,7 @@
         <v>110</v>
       </c>
       <c r="D45" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E45" t="s">
         <v>92</v>
@@ -4862,7 +4983,7 @@
       <c r="T45">
         <v>85</v>
       </c>
-      <c r="U45" s="28">
+      <c r="U45" s="23">
         <v>9.7899999999999991</v>
       </c>
       <c r="V45">
@@ -4887,7 +5008,7 @@
         <v>203.75</v>
       </c>
     </row>
-    <row r="46" spans="1:28">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>40476</v>
       </c>
@@ -4898,7 +5019,7 @@
         <v>110</v>
       </c>
       <c r="D46" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E46" t="s">
         <v>76</v>
@@ -4909,7 +5030,7 @@
       <c r="G46">
         <v>1109.52</v>
       </c>
-      <c r="H46" s="29">
+      <c r="H46" s="24">
         <v>10217.129999999999</v>
       </c>
       <c r="I46">
@@ -4973,7 +5094,7 @@
         <v>619.51</v>
       </c>
     </row>
-    <row r="47" spans="1:28">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>39673</v>
       </c>
@@ -4984,7 +5105,7 @@
         <v>107</v>
       </c>
       <c r="D47" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E47" t="s">
         <v>56</v>
@@ -5034,7 +5155,7 @@
       <c r="T47">
         <v>38.71</v>
       </c>
-      <c r="U47" s="28">
+      <c r="U47" s="23">
         <v>8.11</v>
       </c>
       <c r="V47">
@@ -5059,7 +5180,7 @@
         <v>67.28</v>
       </c>
     </row>
-    <row r="48" spans="1:28">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>40212</v>
       </c>
@@ -5070,7 +5191,7 @@
         <v>107</v>
       </c>
       <c r="D48" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E48" t="s">
         <v>44</v>
@@ -5145,7 +5266,7 @@
         <v>308.27</v>
       </c>
     </row>
-    <row r="49" spans="1:28">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>40302</v>
       </c>
@@ -5156,7 +5277,7 @@
         <v>107</v>
       </c>
       <c r="D49" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E49" t="s">
         <v>40</v>
@@ -5206,7 +5327,7 @@
       <c r="T49">
         <v>27.1</v>
       </c>
-      <c r="U49" s="28">
+      <c r="U49" s="23">
         <v>9.7899999999999991</v>
       </c>
       <c r="V49">
@@ -5231,7 +5352,7 @@
         <v>150.62</v>
       </c>
     </row>
-    <row r="50" spans="1:28">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>40390</v>
       </c>
@@ -5242,7 +5363,7 @@
         <v>107</v>
       </c>
       <c r="D50" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E50" t="s">
         <v>28</v>
@@ -5317,7 +5438,7 @@
         <v>293.19</v>
       </c>
     </row>
-    <row r="51" spans="1:28">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>40395</v>
       </c>
@@ -5328,7 +5449,7 @@
         <v>107</v>
       </c>
       <c r="D51" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E51" t="s">
         <v>72</v>
@@ -5339,7 +5460,7 @@
       <c r="G51">
         <v>1594.51</v>
       </c>
-      <c r="H51" s="29">
+      <c r="H51" s="24">
         <v>11931.18</v>
       </c>
       <c r="I51">
@@ -5403,7 +5524,7 @@
         <v>637.41999999999996</v>
       </c>
     </row>
-    <row r="52" spans="1:28" ht="15.75" thickBot="1">
+    <row r="52" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>40479</v>
       </c>
@@ -5414,7 +5535,7 @@
         <v>107</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>84</v>
@@ -5425,7 +5546,7 @@
       <c r="G52">
         <v>2005.12</v>
       </c>
-      <c r="H52" s="29">
+      <c r="H52" s="24">
         <v>10744.32</v>
       </c>
       <c r="I52">
@@ -5489,7 +5610,7 @@
         <v>511.66</v>
       </c>
     </row>
-    <row r="53" spans="1:28">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>40335</v>
       </c>
@@ -5500,7 +5621,7 @@
         <v>111</v>
       </c>
       <c r="D53" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E53" t="s">
         <v>88</v>
@@ -5575,7 +5696,7 @@
         <v>413.9</v>
       </c>
     </row>
-    <row r="54" spans="1:28">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>40440</v>
       </c>
@@ -5586,7 +5707,7 @@
         <v>111</v>
       </c>
       <c r="D54" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E54" t="s">
         <v>96</v>
@@ -5600,7 +5721,7 @@
       <c r="H54">
         <v>501.25</v>
       </c>
-      <c r="I54" s="28">
+      <c r="I54" s="23">
         <v>1.81</v>
       </c>
       <c r="J54">
@@ -5636,7 +5757,7 @@
       <c r="T54">
         <v>87.38</v>
       </c>
-      <c r="U54" s="28">
+      <c r="U54" s="23">
         <v>1.68</v>
       </c>
       <c r="V54">
@@ -5661,7 +5782,7 @@
         <v>140.13</v>
       </c>
     </row>
-    <row r="55" spans="1:28">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>40473</v>
       </c>
@@ -5672,7 +5793,7 @@
         <v>111</v>
       </c>
       <c r="D55" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E55" t="s">
         <v>100</v>
@@ -5747,7 +5868,7 @@
         <v>252.36</v>
       </c>
     </row>
-    <row r="56" spans="1:28">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>40478</v>
       </c>
@@ -5758,7 +5879,7 @@
         <v>111</v>
       </c>
       <c r="D56" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E56" t="s">
         <v>64</v>
@@ -5833,7 +5954,7 @@
         <v>293.19</v>
       </c>
     </row>
-    <row r="57" spans="1:28">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>40228</v>
       </c>
@@ -5844,7 +5965,7 @@
         <v>109</v>
       </c>
       <c r="D57" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E57" t="s">
         <v>48</v>
@@ -5919,7 +6040,7 @@
         <v>405.57</v>
       </c>
     </row>
-    <row r="58" spans="1:28">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>40295</v>
       </c>
@@ -5930,7 +6051,7 @@
         <v>109</v>
       </c>
       <c r="D58" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E58" t="s">
         <v>24</v>
@@ -6005,7 +6126,7 @@
         <v>193.01</v>
       </c>
     </row>
-    <row r="59" spans="1:28">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>39689</v>
       </c>
@@ -6016,7 +6137,7 @@
         <v>109</v>
       </c>
       <c r="D59" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E59" t="s">
         <v>52</v>
@@ -6091,7 +6212,7 @@
         <v>566.49</v>
       </c>
     </row>
-    <row r="60" spans="1:28" ht="15.75" thickBot="1">
+    <row r="60" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>40482</v>
       </c>
@@ -6102,7 +6223,7 @@
         <v>112</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>68</v>
@@ -6177,7 +6298,7 @@
         <v>411.82</v>
       </c>
     </row>
-    <row r="61" spans="1:28">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>39813</v>
       </c>
@@ -6202,10 +6323,10 @@
       <c r="H61">
         <v>109.32</v>
       </c>
-      <c r="I61" s="28">
+      <c r="I61" s="23">
         <v>0.6</v>
       </c>
-      <c r="J61" s="28">
+      <c r="J61" s="23">
         <v>1.2</v>
       </c>
       <c r="K61">
@@ -6214,7 +6335,7 @@
       <c r="L61">
         <v>56.46</v>
       </c>
-      <c r="M61" s="28">
+      <c r="M61" s="23">
         <v>1.34</v>
       </c>
       <c r="N61">
@@ -6226,31 +6347,31 @@
       <c r="P61">
         <v>185.13</v>
       </c>
-      <c r="Q61" s="28">
+      <c r="Q61" s="23">
         <v>0.75</v>
       </c>
       <c r="R61">
         <v>31.06</v>
       </c>
-      <c r="S61" s="28">
+      <c r="S61" s="23">
         <v>0.25</v>
       </c>
       <c r="T61">
         <v>3.33</v>
       </c>
-      <c r="U61" s="28">
+      <c r="U61" s="23">
         <v>3.05</v>
       </c>
       <c r="V61">
         <v>18.03</v>
       </c>
-      <c r="W61" s="28">
+      <c r="W61" s="23">
         <v>2.4500000000000002</v>
       </c>
-      <c r="X61" s="28">
+      <c r="X61" s="23">
         <v>2.08</v>
       </c>
-      <c r="Y61" s="28">
+      <c r="Y61" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="Z61">
@@ -6259,11 +6380,11 @@
       <c r="AA61">
         <v>14.91</v>
       </c>
-      <c r="AB61" s="28">
+      <c r="AB61" s="23">
         <v>6.8</v>
       </c>
     </row>
-    <row r="62" spans="1:28">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>39827</v>
       </c>
@@ -6288,7 +6409,7 @@
       <c r="H62">
         <v>526.08000000000004</v>
       </c>
-      <c r="I62" s="28">
+      <c r="I62" s="23">
         <v>0.21</v>
       </c>
       <c r="J62">
@@ -6324,7 +6445,7 @@
       <c r="T62">
         <v>18.399999999999999</v>
       </c>
-      <c r="U62" s="28">
+      <c r="U62" s="23">
         <v>3.05</v>
       </c>
       <c r="V62">
@@ -6336,7 +6457,7 @@
       <c r="X62">
         <v>20.28</v>
       </c>
-      <c r="Y62" s="28">
+      <c r="Y62" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="Z62">
@@ -6349,7 +6470,7 @@
         <v>89.61</v>
       </c>
     </row>
-    <row r="63" spans="1:28">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>39988</v>
       </c>
@@ -6374,10 +6495,10 @@
       <c r="H63">
         <v>38.590000000000003</v>
       </c>
-      <c r="I63" s="28">
+      <c r="I63" s="23">
         <v>0.6</v>
       </c>
-      <c r="J63" s="28">
+      <c r="J63" s="23">
         <v>1.2</v>
       </c>
       <c r="K63">
@@ -6386,7 +6507,7 @@
       <c r="L63">
         <v>57.11</v>
       </c>
-      <c r="M63" s="28">
+      <c r="M63" s="23">
         <v>1.1000000000000001</v>
       </c>
       <c r="N63">
@@ -6398,31 +6519,31 @@
       <c r="P63">
         <v>137.06</v>
       </c>
-      <c r="Q63" s="28">
+      <c r="Q63" s="23">
         <v>0.75</v>
       </c>
       <c r="R63">
         <v>26.78</v>
       </c>
-      <c r="S63" s="28">
+      <c r="S63" s="23">
         <v>0.25</v>
       </c>
       <c r="T63">
         <v>5</v>
       </c>
-      <c r="U63" s="28">
+      <c r="U63" s="23">
         <v>3.05</v>
       </c>
       <c r="V63">
         <v>59.86</v>
       </c>
-      <c r="W63" s="28">
+      <c r="W63" s="23">
         <v>2.4500000000000002</v>
       </c>
-      <c r="X63" s="28">
+      <c r="X63" s="23">
         <v>0.8</v>
       </c>
-      <c r="Y63" s="28">
+      <c r="Y63" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="Z63">
@@ -6431,11 +6552,11 @@
       <c r="AA63">
         <v>25.06</v>
       </c>
-      <c r="AB63" s="28">
+      <c r="AB63" s="23">
         <v>6.8</v>
       </c>
     </row>
-    <row r="64" spans="1:28">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>40318</v>
       </c>
@@ -6460,7 +6581,7 @@
       <c r="H64">
         <v>243.32</v>
       </c>
-      <c r="I64" s="28">
+      <c r="I64" s="23">
         <v>0.21</v>
       </c>
       <c r="J64">
@@ -6496,7 +6617,7 @@
       <c r="T64">
         <v>8.25</v>
       </c>
-      <c r="U64" s="28">
+      <c r="U64" s="23">
         <v>3.05</v>
       </c>
       <c r="V64">
@@ -6508,7 +6629,7 @@
       <c r="X64">
         <v>4.26</v>
       </c>
-      <c r="Y64" s="28">
+      <c r="Y64" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="Z64">
@@ -6521,7 +6642,7 @@
         <v>50.82</v>
       </c>
     </row>
-    <row r="65" spans="1:28">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>40360</v>
       </c>
@@ -6546,7 +6667,7 @@
       <c r="H65">
         <v>513.16</v>
       </c>
-      <c r="I65" s="28">
+      <c r="I65" s="23">
         <v>0.51</v>
       </c>
       <c r="J65">
@@ -6582,7 +6703,7 @@
       <c r="T65">
         <v>22.64</v>
       </c>
-      <c r="U65" s="28">
+      <c r="U65" s="23">
         <v>3.05</v>
       </c>
       <c r="V65">
@@ -6594,7 +6715,7 @@
       <c r="X65">
         <v>44.15</v>
       </c>
-      <c r="Y65" s="28">
+      <c r="Y65" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="Z65">
@@ -6607,7 +6728,7 @@
         <v>110.12</v>
       </c>
     </row>
-    <row r="66" spans="1:28">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>40476</v>
       </c>
@@ -6693,7 +6814,7 @@
         <v>244.92</v>
       </c>
     </row>
-    <row r="67" spans="1:28">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>39674</v>
       </c>
@@ -6718,7 +6839,7 @@
       <c r="H67">
         <v>970.18</v>
       </c>
-      <c r="I67" s="28">
+      <c r="I67" s="23">
         <v>1.1000000000000001</v>
       </c>
       <c r="J67">
@@ -6754,7 +6875,7 @@
       <c r="T67">
         <v>28.84</v>
       </c>
-      <c r="U67" s="28">
+      <c r="U67" s="23">
         <v>11.43</v>
       </c>
       <c r="V67">
@@ -6766,7 +6887,7 @@
       <c r="X67">
         <v>28.63</v>
       </c>
-      <c r="Y67" s="28">
+      <c r="Y67" s="23">
         <v>1.62</v>
       </c>
       <c r="Z67">
@@ -6779,7 +6900,7 @@
         <v>110.12</v>
       </c>
     </row>
-    <row r="68" spans="1:28">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>40212</v>
       </c>
@@ -6804,10 +6925,10 @@
       <c r="H68">
         <v>84.19</v>
       </c>
-      <c r="I68" s="28">
+      <c r="I68" s="23">
         <v>0.6</v>
       </c>
-      <c r="J68" s="28">
+      <c r="J68" s="23">
         <v>1.2</v>
       </c>
       <c r="K68">
@@ -6816,7 +6937,7 @@
       <c r="L68">
         <v>23.28</v>
       </c>
-      <c r="M68" s="28">
+      <c r="M68" s="23">
         <v>2.2400000000000002</v>
       </c>
       <c r="N68">
@@ -6834,25 +6955,25 @@
       <c r="R68">
         <v>19.809999999999999</v>
       </c>
-      <c r="S68" s="28">
+      <c r="S68" s="23">
         <v>0.25</v>
       </c>
       <c r="T68">
         <v>3.38</v>
       </c>
-      <c r="U68" s="28">
+      <c r="U68" s="23">
         <v>3.05</v>
       </c>
       <c r="V68">
         <v>31.42</v>
       </c>
-      <c r="W68" s="28">
+      <c r="W68" s="23">
         <v>2.4500000000000002</v>
       </c>
       <c r="X68">
         <v>3.27</v>
       </c>
-      <c r="Y68" s="28">
+      <c r="Y68" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="Z68">
@@ -6861,11 +6982,11 @@
       <c r="AA68">
         <v>34.97</v>
       </c>
-      <c r="AB68" s="28">
+      <c r="AB68" s="23">
         <v>6.8</v>
       </c>
     </row>
-    <row r="69" spans="1:28">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>40302</v>
       </c>
@@ -6890,7 +7011,7 @@
       <c r="H69">
         <v>243.32</v>
       </c>
-      <c r="I69" s="28">
+      <c r="I69" s="23">
         <v>0.6</v>
       </c>
       <c r="J69">
@@ -6920,13 +7041,13 @@
       <c r="R69">
         <v>37.18</v>
       </c>
-      <c r="S69" s="28">
+      <c r="S69" s="23">
         <v>1.19</v>
       </c>
       <c r="T69">
         <v>6.31</v>
       </c>
-      <c r="U69" s="28">
+      <c r="U69" s="23">
         <v>3.05</v>
       </c>
       <c r="V69">
@@ -6938,7 +7059,7 @@
       <c r="X69">
         <v>5.92</v>
       </c>
-      <c r="Y69" s="28">
+      <c r="Y69" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="Z69">
@@ -6947,11 +7068,11 @@
       <c r="AA69">
         <v>34.97</v>
       </c>
-      <c r="AB69" s="28">
+      <c r="AB69" s="23">
         <v>6.8</v>
       </c>
     </row>
-    <row r="70" spans="1:28">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>40390</v>
       </c>
@@ -6976,7 +7097,7 @@
       <c r="H70">
         <v>46.06</v>
       </c>
-      <c r="I70" s="28">
+      <c r="I70" s="23">
         <v>1.24</v>
       </c>
       <c r="J70">
@@ -6988,7 +7109,7 @@
       <c r="L70">
         <v>40.729999999999997</v>
       </c>
-      <c r="M70" s="28">
+      <c r="M70" s="23">
         <v>1.34</v>
       </c>
       <c r="N70">
@@ -7012,7 +7133,7 @@
       <c r="T70">
         <v>11.62</v>
       </c>
-      <c r="U70" s="28">
+      <c r="U70" s="23">
         <v>3.05</v>
       </c>
       <c r="V70">
@@ -7024,7 +7145,7 @@
       <c r="X70">
         <v>28.47</v>
       </c>
-      <c r="Y70" s="28">
+      <c r="Y70" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="Z70">
@@ -7037,7 +7158,7 @@
         <v>50.82</v>
       </c>
     </row>
-    <row r="71" spans="1:28">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>40395</v>
       </c>
@@ -7062,7 +7183,7 @@
       <c r="H71">
         <v>70.97</v>
       </c>
-      <c r="I71" s="28">
+      <c r="I71" s="23">
         <v>0.21</v>
       </c>
       <c r="J71">
@@ -7092,13 +7213,13 @@
       <c r="R71">
         <v>94.56</v>
       </c>
-      <c r="S71" s="28">
+      <c r="S71" s="23">
         <v>1.61</v>
       </c>
       <c r="T71">
         <v>12.35</v>
       </c>
-      <c r="U71" s="28">
+      <c r="U71" s="23">
         <v>3.05</v>
       </c>
       <c r="V71">
@@ -7110,7 +7231,7 @@
       <c r="X71">
         <v>36.26</v>
       </c>
-      <c r="Y71" s="28">
+      <c r="Y71" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="Z71">
@@ -7123,7 +7244,7 @@
         <v>32.18</v>
       </c>
     </row>
-    <row r="72" spans="1:28" ht="15.75" thickBot="1">
+    <row r="72" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>40479</v>
       </c>
@@ -7148,10 +7269,10 @@
       <c r="H72">
         <v>594.85</v>
       </c>
-      <c r="I72" s="28">
+      <c r="I72" s="23">
         <v>0.6</v>
       </c>
-      <c r="J72" s="28">
+      <c r="J72" s="23">
         <v>1.2</v>
       </c>
       <c r="K72">
@@ -7172,19 +7293,19 @@
       <c r="P72">
         <v>992.51</v>
       </c>
-      <c r="Q72" s="28">
+      <c r="Q72" s="23">
         <v>1.1299999999999999</v>
       </c>
       <c r="R72">
         <v>69.3</v>
       </c>
-      <c r="S72" s="28">
+      <c r="S72" s="23">
         <v>0.76</v>
       </c>
       <c r="T72">
         <v>15.44</v>
       </c>
-      <c r="U72" s="28">
+      <c r="U72" s="23">
         <v>3.05</v>
       </c>
       <c r="V72">
@@ -7196,7 +7317,7 @@
       <c r="X72">
         <v>9.24</v>
       </c>
-      <c r="Y72" s="28">
+      <c r="Y72" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="Z72">
@@ -7209,7 +7330,7 @@
         <v>59.25</v>
       </c>
     </row>
-    <row r="73" spans="1:28">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>40335</v>
       </c>
@@ -7234,7 +7355,7 @@
       <c r="H73">
         <v>626.87</v>
       </c>
-      <c r="I73" s="28">
+      <c r="I73" s="23">
         <v>0.36</v>
       </c>
       <c r="J73">
@@ -7270,7 +7391,7 @@
       <c r="T73">
         <v>27.05</v>
       </c>
-      <c r="U73" s="28">
+      <c r="U73" s="23">
         <v>1.1299999999999999</v>
       </c>
       <c r="V73">
@@ -7282,7 +7403,7 @@
       <c r="X73">
         <v>12.49</v>
       </c>
-      <c r="Y73" s="28">
+      <c r="Y73" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="Z73">
@@ -7295,7 +7416,7 @@
         <v>113.41</v>
       </c>
     </row>
-    <row r="74" spans="1:28">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>40440</v>
       </c>
@@ -7320,7 +7441,7 @@
       <c r="H74">
         <v>265.86</v>
       </c>
-      <c r="I74" s="28">
+      <c r="I74" s="23">
         <v>0.21</v>
       </c>
       <c r="J74">
@@ -7356,7 +7477,7 @@
       <c r="T74">
         <v>15.5</v>
       </c>
-      <c r="U74" s="28">
+      <c r="U74" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="V74">
@@ -7368,7 +7489,7 @@
       <c r="X74">
         <v>7.35</v>
       </c>
-      <c r="Y74" s="28">
+      <c r="Y74" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="Z74">
@@ -7381,7 +7502,7 @@
         <v>76.86</v>
       </c>
     </row>
-    <row r="75" spans="1:28">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>40473</v>
       </c>
@@ -7406,7 +7527,7 @@
       <c r="H75">
         <v>383.66</v>
       </c>
-      <c r="I75" s="28">
+      <c r="I75" s="23">
         <v>0.66</v>
       </c>
       <c r="J75">
@@ -7442,7 +7563,7 @@
       <c r="T75">
         <v>22.95</v>
       </c>
-      <c r="U75" s="28">
+      <c r="U75" s="23">
         <v>9.3800000000000008</v>
       </c>
       <c r="V75">
@@ -7454,7 +7575,7 @@
       <c r="X75">
         <v>8.01</v>
       </c>
-      <c r="Y75" s="28">
+      <c r="Y75" s="23">
         <v>0.19</v>
       </c>
       <c r="Z75">
@@ -7467,7 +7588,7 @@
         <v>106.8</v>
       </c>
     </row>
-    <row r="76" spans="1:28">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>40478</v>
       </c>
@@ -7492,7 +7613,7 @@
       <c r="H76">
         <v>302.13</v>
       </c>
-      <c r="I76" s="28">
+      <c r="I76" s="23">
         <v>0.06</v>
       </c>
       <c r="J76">
@@ -7528,7 +7649,7 @@
       <c r="T76">
         <v>20.63</v>
       </c>
-      <c r="U76" s="28">
+      <c r="U76" s="23">
         <v>3.05</v>
       </c>
       <c r="V76">
@@ -7540,7 +7661,7 @@
       <c r="X76">
         <v>44.28</v>
       </c>
-      <c r="Y76" s="28">
+      <c r="Y76" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="Z76">
@@ -7553,7 +7674,7 @@
         <v>84.23</v>
       </c>
     </row>
-    <row r="77" spans="1:28">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>40228</v>
       </c>
@@ -7569,7 +7690,7 @@
       <c r="E77" t="s">
         <v>50</v>
       </c>
-      <c r="F77" s="30">
+      <c r="F77" s="25">
         <v>0.83</v>
       </c>
       <c r="G77">
@@ -7578,10 +7699,10 @@
       <c r="H77">
         <v>126.24</v>
       </c>
-      <c r="I77" s="28">
+      <c r="I77" s="23">
         <v>0.6</v>
       </c>
-      <c r="J77" s="28">
+      <c r="J77" s="23">
         <v>1.2</v>
       </c>
       <c r="K77">
@@ -7608,25 +7729,25 @@
       <c r="R77">
         <v>48.15</v>
       </c>
-      <c r="S77" s="28">
+      <c r="S77" s="23">
         <v>0.3</v>
       </c>
-      <c r="T77" s="28">
+      <c r="T77" s="23">
         <v>0.27</v>
       </c>
-      <c r="U77" s="28">
+      <c r="U77" s="23">
         <v>3.05</v>
       </c>
       <c r="V77">
         <v>14.12</v>
       </c>
-      <c r="W77" s="28">
+      <c r="W77" s="23">
         <v>2.4500000000000002</v>
       </c>
       <c r="X77">
         <v>28.63</v>
       </c>
-      <c r="Y77" s="28">
+      <c r="Y77" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="Z77">
@@ -7635,11 +7756,11 @@
       <c r="AA77">
         <v>42.79</v>
       </c>
-      <c r="AB77" s="28">
+      <c r="AB77" s="23">
         <v>6.8</v>
       </c>
     </row>
-    <row r="78" spans="1:28">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>40295</v>
       </c>
@@ -7664,7 +7785,7 @@
       <c r="H78">
         <v>99.31</v>
       </c>
-      <c r="I78" s="28">
+      <c r="I78" s="23">
         <v>1.24</v>
       </c>
       <c r="J78">
@@ -7676,7 +7797,7 @@
       <c r="L78">
         <v>117.42</v>
       </c>
-      <c r="M78" s="28">
+      <c r="M78" s="23">
         <v>1.8</v>
       </c>
       <c r="N78">
@@ -7700,7 +7821,7 @@
       <c r="T78">
         <v>11.88</v>
       </c>
-      <c r="U78" s="28">
+      <c r="U78" s="23">
         <v>3.05</v>
       </c>
       <c r="V78">
@@ -7712,7 +7833,7 @@
       <c r="X78">
         <v>6.66</v>
       </c>
-      <c r="Y78" s="28">
+      <c r="Y78" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="Z78">
@@ -7725,7 +7846,7 @@
         <v>71.16</v>
       </c>
     </row>
-    <row r="79" spans="1:28">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>39689</v>
       </c>
@@ -7750,7 +7871,7 @@
       <c r="H79">
         <v>93.28</v>
       </c>
-      <c r="I79" s="28">
+      <c r="I79" s="23">
         <v>0.6</v>
       </c>
       <c r="J79">
@@ -7786,19 +7907,19 @@
       <c r="T79">
         <v>5.33</v>
       </c>
-      <c r="U79" s="28">
+      <c r="U79" s="23">
         <v>3.05</v>
       </c>
       <c r="V79">
         <v>24.86</v>
       </c>
-      <c r="W79" s="28">
+      <c r="W79" s="23">
         <v>2.4500000000000002</v>
       </c>
-      <c r="X79" s="28">
+      <c r="X79" s="23">
         <v>0.8</v>
       </c>
-      <c r="Y79" s="28">
+      <c r="Y79" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="Z79">
@@ -7811,7 +7932,7 @@
         <v>44.17</v>
       </c>
     </row>
-    <row r="80" spans="1:28">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>40482</v>
       </c>
@@ -7836,10 +7957,10 @@
       <c r="H80">
         <v>216.85</v>
       </c>
-      <c r="I80" s="28">
+      <c r="I80" s="23">
         <v>0.6</v>
       </c>
-      <c r="J80" s="28">
+      <c r="J80" s="23">
         <v>1.2</v>
       </c>
       <c r="K80">
@@ -7866,13 +7987,13 @@
       <c r="R80">
         <v>132.02000000000001</v>
       </c>
-      <c r="S80" s="28">
+      <c r="S80" s="23">
         <v>0.76</v>
       </c>
       <c r="T80">
         <v>13.38</v>
       </c>
-      <c r="U80" s="28">
+      <c r="U80" s="23">
         <v>3.05</v>
       </c>
       <c r="V80">
@@ -7881,10 +8002,10 @@
       <c r="W80">
         <v>29.62</v>
       </c>
-      <c r="X80" s="28">
+      <c r="X80" s="23">
         <v>2.08</v>
       </c>
-      <c r="Y80" s="28">
+      <c r="Y80" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="Z80">
@@ -7897,43 +8018,17 @@
         <v>55.09</v>
       </c>
     </row>
-    <row r="81" spans="5:28">
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
-      <c r="M81" s="1"/>
-      <c r="N81" s="1"/>
-      <c r="O81" s="1"/>
-      <c r="P81" s="1"/>
-      <c r="Q81" s="1"/>
-      <c r="R81" s="1"/>
-      <c r="S81" s="1"/>
-      <c r="T81" s="1"/>
-      <c r="U81" s="1"/>
-      <c r="V81" s="1"/>
-      <c r="W81" s="1"/>
-      <c r="X81" s="1"/>
-      <c r="Y81" s="1"/>
-      <c r="Z81" s="1"/>
-      <c r="AA81" s="1"/>
-      <c r="AB81" s="1"/>
-    </row>
   </sheetData>
-  <sortState ref="A2:AB81">
-    <sortCondition ref="D2:D81"/>
-    <sortCondition ref="C2:C81"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB80">
+    <sortCondition ref="D2:D80"/>
+    <sortCondition ref="C2:C80"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -7941,27 +8036,27 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="25"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+      <c r="H1" s="29"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -7987,7 +8082,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <f>Sheet1!N2</f>
         <v>0.8</v>
@@ -8021,7 +8116,7 @@
         <v>108.96</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!N3</f>
         <v>145.02000000000001</v>
@@ -8055,7 +8150,7 @@
         <v>70.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!N4</f>
         <v>1.94</v>
@@ -8089,7 +8184,7 @@
         <v>53.83</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!N5</f>
         <v>53.44</v>
@@ -8123,7 +8218,7 @@
         <v>118.35</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!N6</f>
         <v>4.5</v>
@@ -8157,7 +8252,7 @@
         <v>27.95</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!N7</f>
         <v>0.8</v>
@@ -8191,7 +8286,7 @@
         <v>3.26</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!N8</f>
         <v>1.07</v>
@@ -8225,7 +8320,7 @@
         <v>32.340000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!N9</f>
         <v>4.5</v>
@@ -8256,7 +8351,7 @@
         <v>54.68</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!N10</f>
         <v>98.52</v>
@@ -8278,7 +8373,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!N11</f>
         <v>6.91</v>
@@ -8300,7 +8395,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!N12</f>
         <v>176.65</v>
@@ -8322,7 +8417,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!N13</f>
         <v>21.53</v>
@@ -8356,7 +8451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -8364,27 +8459,27 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="25"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+      <c r="H1" s="29"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -8410,7 +8505,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <f>Sheet1!O2</f>
         <v>3.73</v>
@@ -8444,7 +8539,7 @@
         <v>154.13999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!O3</f>
         <v>3884.12</v>
@@ -8478,7 +8573,7 @@
         <v>264.56</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!O4</f>
         <v>28.46</v>
@@ -8512,7 +8607,7 @@
         <v>360.27</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!O5</f>
         <v>237.58</v>
@@ -8546,7 +8641,7 @@
         <v>68.290000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!O6</f>
         <v>80.95</v>
@@ -8580,7 +8675,7 @@
         <v>40.74</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!O7</f>
         <v>0.55000000000000004</v>
@@ -8614,7 +8709,7 @@
         <v>49.06</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!O8</f>
         <v>6.15</v>
@@ -8648,7 +8743,7 @@
         <v>22.45</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!O9</f>
         <v>18.27</v>
@@ -8679,7 +8774,7 @@
         <v>106.85</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!O10</f>
         <v>2904.32</v>
@@ -8701,7 +8796,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!O11</f>
         <v>382.58</v>
@@ -8723,7 +8818,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!O12</f>
         <v>3375.84</v>
@@ -8745,7 +8840,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!O13</f>
         <v>354.74</v>
@@ -8779,7 +8874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -8787,27 +8882,27 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="25"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+      <c r="H1" s="29"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -8833,7 +8928,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <f>Sheet1!P2</f>
         <v>15.09</v>
@@ -8867,7 +8962,7 @@
         <v>924.99</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!P3</f>
         <v>1126.06</v>
@@ -8901,7 +8996,7 @@
         <v>259.68</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!P4</f>
         <v>41.63</v>
@@ -8935,7 +9030,7 @@
         <v>378.42</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!P5</f>
         <v>766.94</v>
@@ -8969,7 +9064,7 @@
         <v>1091.42</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!P6</f>
         <v>111.52</v>
@@ -9003,7 +9098,7 @@
         <v>400.78</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!P7</f>
         <v>3.2</v>
@@ -9037,7 +9132,7 @@
         <v>196.48</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!P8</f>
         <v>15.09</v>
@@ -9071,7 +9166,7 @@
         <v>504.79</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!P9</f>
         <v>293.36</v>
@@ -9102,7 +9197,7 @@
         <v>1170.05</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!P10</f>
         <v>3021.79</v>
@@ -9124,7 +9219,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!P11</f>
         <v>270.92</v>
@@ -9146,7 +9241,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!P12</f>
         <v>3389.31</v>
@@ -9168,7 +9263,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!P13</f>
         <v>565.29999999999995</v>
@@ -9202,7 +9297,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -9210,27 +9305,27 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="25"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+      <c r="H1" s="29"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -9256,7 +9351,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <f>Sheet1!Q2</f>
         <v>4.67</v>
@@ -9290,7 +9385,7 @@
         <v>17.41</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!Q3</f>
         <v>143.13</v>
@@ -9324,7 +9419,7 @@
         <v>9.0500000000000007</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!Q4</f>
         <v>11.18</v>
@@ -9358,7 +9453,7 @@
         <v>13.28</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!Q5</f>
         <v>72.849999999999994</v>
@@ -9392,7 +9487,7 @@
         <v>14.32</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!Q6</f>
         <v>27.49</v>
@@ -9426,7 +9521,7 @@
         <v>3.53</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!Q7</f>
         <v>0.75</v>
@@ -9460,7 +9555,7 @@
         <v>15.35</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!Q8</f>
         <v>15.35</v>
@@ -9494,7 +9589,7 @@
         <v>6.89</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!Q9</f>
         <v>13.28</v>
@@ -9525,7 +9620,7 @@
         <v>4.67</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!Q10</f>
         <v>76.64</v>
@@ -9547,7 +9642,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!Q11</f>
         <v>25.5</v>
@@ -9569,7 +9664,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!Q12</f>
         <v>187.79</v>
@@ -9591,7 +9686,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!Q13</f>
         <v>39.299999999999997</v>
@@ -9625,7 +9720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -9633,27 +9728,27 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="25"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+      <c r="H1" s="29"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -9679,7 +9774,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <f>Sheet1!R2</f>
         <v>4.05</v>
@@ -9713,7 +9808,7 @@
         <v>231.27</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!R3</f>
         <v>91.81</v>
@@ -9747,7 +9842,7 @@
         <v>165.71</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!R4</f>
         <v>11.3</v>
@@ -9781,7 +9876,7 @@
         <v>174.78</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!R5</f>
         <v>178.74</v>
@@ -9815,7 +9910,7 @@
         <v>221.11</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!R6</f>
         <v>20.329999999999998</v>
@@ -9849,7 +9944,7 @@
         <v>48.15</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!R7</f>
         <v>2.9</v>
@@ -9883,7 +9978,7 @@
         <v>101.3</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!R8</f>
         <v>10.41</v>
@@ -9917,7 +10012,7 @@
         <v>146.15</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!R9</f>
         <v>13.67</v>
@@ -9948,7 +10043,7 @@
         <v>132.02000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!R10</f>
         <v>43.71</v>
@@ -9970,7 +10065,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!R11</f>
         <v>34.229999999999997</v>
@@ -9992,7 +10087,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!R12</f>
         <v>197.57</v>
@@ -10014,7 +10109,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!R13</f>
         <v>43.57</v>
@@ -10048,7 +10143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -10056,27 +10151,27 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="25"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+      <c r="H1" s="29"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -10102,7 +10197,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <f>Sheet1!S2</f>
         <v>0.3</v>
@@ -10136,7 +10231,7 @@
         <v>3.22</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!S3</f>
         <v>24.43</v>
@@ -10170,7 +10265,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!S4</f>
         <v>2.42</v>
@@ -10204,7 +10299,7 @@
         <v>3.22</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!S5</f>
         <v>13.33</v>
@@ -10238,7 +10333,7 @@
         <v>3.61</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!S6</f>
         <v>5.52</v>
@@ -10272,7 +10367,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!S7</f>
         <v>0.25</v>
@@ -10306,7 +10401,7 @@
         <v>3.22</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!S8</f>
         <v>0.76</v>
@@ -10340,7 +10435,7 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!S9</f>
         <v>2.42</v>
@@ -10371,7 +10466,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!S10</f>
         <v>14.03</v>
@@ -10393,7 +10488,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!S11</f>
         <v>4.76</v>
@@ -10415,7 +10510,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!S12</f>
         <v>25.63</v>
@@ -10437,7 +10532,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!S13</f>
         <v>10.29</v>
@@ -10471,7 +10566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -10479,27 +10574,27 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="25"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+      <c r="H1" s="29"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -10525,7 +10620,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <f>Sheet1!T2</f>
         <v>1.59</v>
@@ -10559,7 +10654,7 @@
         <v>27.05</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!T3</f>
         <v>137.16999999999999</v>
@@ -10593,7 +10688,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!T4</f>
         <v>4</v>
@@ -10627,7 +10722,7 @@
         <v>22.95</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!T5</f>
         <v>145.86000000000001</v>
@@ -10661,7 +10756,7 @@
         <v>20.63</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!T6</f>
         <v>14.16</v>
@@ -10695,7 +10790,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!T7</f>
         <v>0.65</v>
@@ -10729,7 +10824,7 @@
         <v>11.88</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!T8</f>
         <v>1.59</v>
@@ -10763,7 +10858,7 @@
         <v>5.33</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!T9</f>
         <v>14.36</v>
@@ -10794,7 +10889,7 @@
         <v>13.38</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!T10</f>
         <v>311.64</v>
@@ -10816,7 +10911,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!T11</f>
         <v>133.08000000000001</v>
@@ -10838,7 +10933,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!T12</f>
         <v>394.89</v>
@@ -10860,7 +10955,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!T13</f>
         <v>70.19</v>
@@ -10894,7 +10989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -10902,27 +10997,27 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="25"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+      <c r="H1" s="29"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -10948,7 +11043,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="19">
         <f>Sheet1!U2</f>
         <v>3.05</v>
@@ -10982,7 +11077,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!U3</f>
         <v>22.59</v>
@@ -11016,7 +11111,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!U4</f>
         <v>3.05</v>
@@ -11050,7 +11145,7 @@
         <v>9.3800000000000008</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!U5</f>
         <v>5.95</v>
@@ -11084,7 +11179,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!U6</f>
         <v>1.68</v>
@@ -11118,7 +11213,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!U7</f>
         <v>3.05</v>
@@ -11152,7 +11247,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!U8</f>
         <v>3.05</v>
@@ -11186,7 +11281,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!U9</f>
         <v>3.05</v>
@@ -11217,7 +11312,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!U10</f>
         <v>18.66</v>
@@ -11239,7 +11334,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!U11</f>
         <v>2.94</v>
@@ -11261,7 +11356,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!U12</f>
         <v>34.07</v>
@@ -11283,7 +11378,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!U13</f>
         <v>7.04</v>
@@ -11317,7 +11412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -11325,27 +11420,27 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="25"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+      <c r="H1" s="29"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -11371,7 +11466,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="19">
         <f>Sheet1!V2</f>
         <v>5.58</v>
@@ -11405,7 +11500,7 @@
         <v>99.11</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!V3</f>
         <v>785.72</v>
@@ -11439,7 +11534,7 @@
         <v>126.81</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!V4</f>
         <v>15.1</v>
@@ -11473,7 +11568,7 @@
         <v>315.87</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!V5</f>
         <v>247.26</v>
@@ -11507,7 +11602,7 @@
         <v>47.17</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!V6</f>
         <v>94.6</v>
@@ -11541,7 +11636,7 @@
         <v>14.12</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!V7</f>
         <v>1.55</v>
@@ -11575,7 +11670,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!V8</f>
         <v>10.55</v>
@@ -11609,7 +11704,7 @@
         <v>24.86</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!V9</f>
         <v>16.37</v>
@@ -11640,7 +11735,7 @@
         <v>82.31</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!V10</f>
         <v>471.21</v>
@@ -11662,7 +11757,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!V11</f>
         <v>72.08</v>
@@ -11684,7 +11779,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!V12</f>
         <v>899.21</v>
@@ -11706,7 +11801,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!V13</f>
         <v>145.09</v>
@@ -11740,7 +11835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -11748,27 +11843,27 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="25"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+      <c r="H1" s="29"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -11794,7 +11889,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="19">
         <f>Sheet1!W2</f>
         <v>2.4500000000000002</v>
@@ -11828,7 +11923,7 @@
         <v>46.08</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!W3</f>
         <v>629.76</v>
@@ -11862,7 +11957,7 @@
         <v>58.95</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!W4</f>
         <v>10.130000000000001</v>
@@ -11896,7 +11991,7 @@
         <v>65.62</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!W5</f>
         <v>531.34</v>
@@ -11930,7 +12025,7 @@
         <v>35.85</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!W6</f>
         <v>42.5</v>
@@ -11964,7 +12059,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!W7</f>
         <v>2.4500000000000002</v>
@@ -11998,7 +12093,7 @@
         <v>49.44</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!W8</f>
         <v>0.8</v>
@@ -12032,7 +12127,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!W9</f>
         <v>68.94</v>
@@ -12063,7 +12158,7 @@
         <v>29.62</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!W10</f>
         <v>513.52</v>
@@ -12085,7 +12180,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!W11</f>
         <v>368.18</v>
@@ -12107,7 +12202,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!W12</f>
         <v>737.17</v>
@@ -12129,7 +12224,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!W13</f>
         <v>423.08</v>
@@ -12163,7 +12258,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -12171,27 +12266,27 @@
       <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23" t="s">
+      <c r="F1" s="27"/>
+      <c r="G1" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="23"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>118</v>
       </c>
@@ -12217,7 +12312,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <f>Sheet1!F2</f>
         <v>2.84</v>
@@ -12251,7 +12346,7 @@
         <v>9.42</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <f>Sheet1!F3</f>
         <v>40.92</v>
@@ -12285,7 +12380,7 @@
         <v>10.92</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <f>Sheet1!F4</f>
         <v>5.45</v>
@@ -12319,7 +12414,7 @@
         <v>12.39</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <f>Sheet1!F5</f>
         <v>45.09</v>
@@ -12353,7 +12448,7 @@
         <v>6.27</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <f>Sheet1!F6</f>
         <v>23.4</v>
@@ -12387,7 +12482,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <f>Sheet1!F7</f>
         <v>1.05</v>
@@ -12421,7 +12516,7 @@
         <v>22.74</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <f>Sheet1!F8</f>
         <v>7.87</v>
@@ -12455,7 +12550,7 @@
         <v>7.08</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <f>Sheet1!F9</f>
         <v>8.65</v>
@@ -12486,7 +12581,7 @@
         <v>7.87</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <f>Sheet1!F10</f>
         <v>117.46</v>
@@ -12508,7 +12603,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <f>Sheet1!F11</f>
         <v>43.31</v>
@@ -12530,7 +12625,7 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <f>Sheet1!F12</f>
         <v>65.69</v>
@@ -12552,7 +12647,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <f>Sheet1!F13</f>
         <v>58.39</v>
@@ -12586,7 +12681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -12594,27 +12689,27 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="25"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+      <c r="H1" s="29"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -12640,7 +12735,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="19">
         <f>Sheet1!X2</f>
         <v>0.8</v>
@@ -12674,7 +12769,7 @@
         <v>12.49</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!X3</f>
         <v>64.86</v>
@@ -12708,7 +12803,7 @@
         <v>7.35</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!X4</f>
         <v>6.66</v>
@@ -12742,7 +12837,7 @@
         <v>8.01</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!X5</f>
         <v>87.43</v>
@@ -12776,7 +12871,7 @@
         <v>44.28</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!X6</f>
         <v>18.309999999999999</v>
@@ -12810,7 +12905,7 @@
         <v>28.63</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!X7</f>
         <v>0.8</v>
@@ -12844,7 +12939,7 @@
         <v>6.66</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!X8</f>
         <v>4.26</v>
@@ -12878,7 +12973,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!X9</f>
         <v>20.67</v>
@@ -12909,7 +13004,7 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!X10</f>
         <v>64.86</v>
@@ -12931,7 +13026,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!X11</f>
         <v>227.88</v>
@@ -12953,7 +13048,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!X12</f>
         <v>370.95</v>
@@ -12975,7 +13070,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!X13</f>
         <v>42.35</v>
@@ -13009,7 +13104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -13017,27 +13112,27 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="25"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+      <c r="H1" s="29"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -13063,7 +13158,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="19">
         <f>Sheet1!Y2</f>
         <v>0.55000000000000004</v>
@@ -13097,7 +13192,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!Y3</f>
         <v>14.67</v>
@@ -13131,7 +13226,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!Y4</f>
         <v>1.62</v>
@@ -13165,7 +13260,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!Y5</f>
         <v>15.27</v>
@@ -13199,7 +13294,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!Y6</f>
         <v>7.29</v>
@@ -13233,7 +13328,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!Y7</f>
         <v>0.55000000000000004</v>
@@ -13267,7 +13362,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!Y8</f>
         <v>1.18</v>
@@ -13301,7 +13396,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!Y9</f>
         <v>2.0299999999999998</v>
@@ -13332,7 +13427,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!Y10</f>
         <v>19.36</v>
@@ -13354,7 +13449,7 @@
       </c>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!Y11</f>
         <v>3.97</v>
@@ -13376,7 +13471,7 @@
       </c>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!Y12</f>
         <v>24.97</v>
@@ -13398,7 +13493,7 @@
       </c>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!Y13</f>
         <v>20.78</v>
@@ -13432,7 +13527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:H16"/>
   <sheetViews>
@@ -13440,27 +13535,27 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="25"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+      <c r="H1" s="29"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -13486,7 +13581,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="19">
         <f>Sheet1!Z2</f>
         <v>56.98</v>
@@ -13520,7 +13615,7 @@
         <v>881.13</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!Z3</f>
         <v>1135.4100000000001</v>
@@ -13554,7 +13649,7 @@
         <v>440.93</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!Z4</f>
         <v>114.85</v>
@@ -13588,7 +13683,7 @@
         <v>921.86</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!Z5</f>
         <v>1195.78</v>
@@ -13622,7 +13717,7 @@
         <v>748.85</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!Z6</f>
         <v>228.15</v>
@@ -13656,7 +13751,7 @@
         <v>536.37</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!Z7</f>
         <v>0.8</v>
@@ -13690,7 +13785,7 @@
         <v>35.97</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!Z8</f>
         <v>83.72</v>
@@ -13724,7 +13819,7 @@
         <v>610.38</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!Z9</f>
         <v>414.7</v>
@@ -13755,7 +13850,7 @@
         <v>747.1</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!Z10</f>
         <v>1521.7</v>
@@ -13777,7 +13872,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!Z11</f>
         <v>346</v>
@@ -13799,7 +13894,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!Z12</f>
         <v>1967.88</v>
@@ -13821,7 +13916,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!Z13</f>
         <v>904.03</v>
@@ -13843,7 +13938,7 @@
       </c>
       <c r="H14" s="13"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D16">
         <v>9</v>
       </c>
@@ -13860,7 +13955,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -13868,27 +13963,27 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="25"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+      <c r="H1" s="29"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -13914,7 +14009,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="19">
         <f>Sheet1!AA2</f>
         <v>4.32</v>
@@ -13948,7 +14043,7 @@
         <v>110.62</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!AA3</f>
         <v>141.72</v>
@@ -13982,7 +14077,7 @@
         <v>40.840000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!AA4</f>
         <v>10.76</v>
@@ -14016,7 +14111,7 @@
         <v>62.96</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!AA5</f>
         <v>79.95</v>
@@ -14050,7 +14145,7 @@
         <v>107.85</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!AA6</f>
         <v>24.06</v>
@@ -14084,7 +14179,7 @@
         <v>42.79</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!AA7</f>
         <v>1.05</v>
@@ -14118,7 +14213,7 @@
         <v>12.84</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!AA8</f>
         <v>9.6999999999999993</v>
@@ -14152,7 +14247,7 @@
         <v>112.46</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!AA9</f>
         <v>21.03</v>
@@ -14183,7 +14278,7 @@
         <v>45.7</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!AA10</f>
         <v>144.44</v>
@@ -14205,7 +14300,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!AA11</f>
         <v>31.03</v>
@@ -14227,7 +14322,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!AA12</f>
         <v>247.14</v>
@@ -14249,7 +14344,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!AA13</f>
         <v>88.37</v>
@@ -14283,7 +14378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -14291,27 +14386,27 @@
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="25"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+      <c r="H1" s="29"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -14337,7 +14432,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="19">
         <f>Sheet1!AB2</f>
         <v>6.8</v>
@@ -14371,7 +14466,7 @@
         <v>113.41</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!AB3</f>
         <v>361.9</v>
@@ -14405,7 +14500,7 @@
         <v>76.86</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!AB4</f>
         <v>7.74</v>
@@ -14439,7 +14534,7 @@
         <v>106.8</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!AB5</f>
         <v>375.94</v>
@@ -14473,7 +14568,7 @@
         <v>84.23</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!AB6</f>
         <v>61.29</v>
@@ -14507,7 +14602,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!AB7</f>
         <v>6.8</v>
@@ -14541,7 +14636,7 @@
         <v>71.16</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!AB8</f>
         <v>6.8</v>
@@ -14575,7 +14670,7 @@
         <v>44.17</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!AB9</f>
         <v>55.09</v>
@@ -14606,7 +14701,7 @@
         <v>55.09</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!AB10</f>
         <v>227.23</v>
@@ -14628,7 +14723,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!AB11</f>
         <v>201.09</v>
@@ -14650,7 +14745,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!AB12</f>
         <v>480.52</v>
@@ -14672,7 +14767,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!AB13</f>
         <v>269.43</v>
@@ -14706,7 +14801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:Z80"/>
   <sheetViews>
@@ -14714,14 +14809,14 @@
       <selection activeCell="A2" sqref="A2:Z80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>105</v>
       </c>
@@ -14732,7 +14827,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>110</v>
       </c>
@@ -14751,7 +14846,7 @@
       <c r="F2">
         <v>67.900000000000006</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="23">
         <v>0.21</v>
       </c>
       <c r="H2">
@@ -14760,13 +14855,13 @@
       <c r="I2">
         <v>15.86</v>
       </c>
-      <c r="J2" s="28">
+      <c r="J2" s="23">
         <v>1.55</v>
       </c>
-      <c r="K2" s="28">
+      <c r="K2" s="23">
         <v>0.75</v>
       </c>
-      <c r="L2" s="28">
+      <c r="L2" s="23">
         <v>0.8</v>
       </c>
       <c r="M2">
@@ -14781,25 +14876,25 @@
       <c r="P2">
         <v>4.05</v>
       </c>
-      <c r="Q2" s="28">
+      <c r="Q2" s="23">
         <v>0.3</v>
       </c>
-      <c r="R2" s="28">
+      <c r="R2" s="23">
         <v>1.59</v>
       </c>
-      <c r="S2" s="28">
+      <c r="S2" s="23">
         <v>3.05</v>
       </c>
       <c r="T2">
         <v>5.58</v>
       </c>
-      <c r="U2" s="28">
+      <c r="U2" s="23">
         <v>2.4500000000000002</v>
       </c>
-      <c r="V2" s="28">
+      <c r="V2" s="23">
         <v>0.8</v>
       </c>
-      <c r="W2" s="28">
+      <c r="W2" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="X2">
@@ -14808,11 +14903,11 @@
       <c r="Y2">
         <v>4.32</v>
       </c>
-      <c r="Z2" s="28">
+      <c r="Z2" s="23">
         <v>6.8</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -14892,7 +14987,7 @@
         <v>361.9</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>110</v>
       </c>
@@ -14911,7 +15006,7 @@
       <c r="F4">
         <v>89.25</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="23">
         <v>1.1000000000000001</v>
       </c>
       <c r="H4">
@@ -14920,13 +15015,13 @@
       <c r="I4">
         <v>36.869999999999997</v>
       </c>
-      <c r="J4" s="28">
+      <c r="J4" s="23">
         <v>1.87</v>
       </c>
-      <c r="K4" s="28">
+      <c r="K4" s="23">
         <v>0.28999999999999998</v>
       </c>
-      <c r="L4" s="28">
+      <c r="L4" s="23">
         <v>1.94</v>
       </c>
       <c r="M4">
@@ -14947,7 +15042,7 @@
       <c r="R4">
         <v>4</v>
       </c>
-      <c r="S4" s="28">
+      <c r="S4" s="23">
         <v>3.05</v>
       </c>
       <c r="T4">
@@ -14959,7 +15054,7 @@
       <c r="V4">
         <v>6.66</v>
       </c>
-      <c r="W4" s="28">
+      <c r="W4" s="23">
         <v>1.62</v>
       </c>
       <c r="X4">
@@ -14972,7 +15067,7 @@
         <v>7.74</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>110</v>
       </c>
@@ -15027,7 +15122,7 @@
       <c r="R5">
         <v>145.86000000000001</v>
       </c>
-      <c r="S5" s="28">
+      <c r="S5" s="23">
         <v>5.95</v>
       </c>
       <c r="T5">
@@ -15052,7 +15147,7 @@
         <v>375.94</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>110</v>
       </c>
@@ -15071,7 +15166,7 @@
       <c r="F6">
         <v>330.58</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="23">
         <v>1.88</v>
       </c>
       <c r="H6">
@@ -15107,7 +15202,7 @@
       <c r="R6">
         <v>14.16</v>
       </c>
-      <c r="S6" s="28">
+      <c r="S6" s="23">
         <v>1.68</v>
       </c>
       <c r="T6">
@@ -15132,7 +15227,7 @@
         <v>61.29</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>110</v>
       </c>
@@ -15142,77 +15237,77 @@
       <c r="C7" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="23">
         <v>1.05</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="23">
         <v>0.9</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="23">
         <v>0.8</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="23">
         <v>0.6</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="23">
         <v>1.2</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="23">
         <v>0.01</v>
       </c>
-      <c r="J7" s="28">
+      <c r="J7" s="23">
         <v>1.55</v>
       </c>
-      <c r="K7" s="28">
+      <c r="K7" s="23">
         <v>0.75</v>
       </c>
-      <c r="L7" s="28">
+      <c r="L7" s="23">
         <v>0.8</v>
       </c>
-      <c r="M7" s="28">
+      <c r="M7" s="23">
         <v>0.55000000000000004</v>
       </c>
-      <c r="N7" s="28">
+      <c r="N7" s="23">
         <v>3.2</v>
       </c>
-      <c r="O7" s="28">
+      <c r="O7" s="23">
         <v>0.75</v>
       </c>
-      <c r="P7" s="28">
+      <c r="P7" s="23">
         <v>2.9</v>
       </c>
-      <c r="Q7" s="28">
+      <c r="Q7" s="23">
         <v>0.25</v>
       </c>
-      <c r="R7" s="28">
+      <c r="R7" s="23">
         <v>0.65</v>
       </c>
-      <c r="S7" s="28">
+      <c r="S7" s="23">
         <v>3.05</v>
       </c>
-      <c r="T7" s="28">
+      <c r="T7" s="23">
         <v>1.55</v>
       </c>
-      <c r="U7" s="28">
+      <c r="U7" s="23">
         <v>2.4500000000000002</v>
       </c>
-      <c r="V7" s="28">
+      <c r="V7" s="23">
         <v>0.8</v>
       </c>
-      <c r="W7" s="28">
+      <c r="W7" s="23">
         <v>0.55000000000000004</v>
       </c>
-      <c r="X7" s="28">
+      <c r="X7" s="23">
         <v>0.8</v>
       </c>
-      <c r="Y7" s="28">
+      <c r="Y7" s="23">
         <v>1.05</v>
       </c>
-      <c r="Z7" s="28">
+      <c r="Z7" s="23">
         <v>6.8</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>107</v>
       </c>
@@ -15231,7 +15326,7 @@
       <c r="F8">
         <v>26.56</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="23">
         <v>0.59</v>
       </c>
       <c r="H8">
@@ -15240,13 +15335,13 @@
       <c r="I8">
         <v>5.29</v>
       </c>
-      <c r="J8" s="28">
+      <c r="J8" s="23">
         <v>3.42</v>
       </c>
-      <c r="K8" s="28">
+      <c r="K8" s="23">
         <v>0.85</v>
       </c>
-      <c r="L8" s="28">
+      <c r="L8" s="23">
         <v>1.07</v>
       </c>
       <c r="M8">
@@ -15261,25 +15356,25 @@
       <c r="P8">
         <v>10.41</v>
       </c>
-      <c r="Q8" s="28">
+      <c r="Q8" s="23">
         <v>0.76</v>
       </c>
-      <c r="R8" s="28">
+      <c r="R8" s="23">
         <v>1.59</v>
       </c>
-      <c r="S8" s="28">
+      <c r="S8" s="23">
         <v>3.05</v>
       </c>
       <c r="T8">
         <v>10.55</v>
       </c>
-      <c r="U8" s="28">
+      <c r="U8" s="23">
         <v>0.8</v>
       </c>
       <c r="V8">
         <v>4.26</v>
       </c>
-      <c r="W8" s="28">
+      <c r="W8" s="23">
         <v>1.18</v>
       </c>
       <c r="X8">
@@ -15288,11 +15383,11 @@
       <c r="Y8">
         <v>9.6999999999999993</v>
       </c>
-      <c r="Z8" s="28">
+      <c r="Z8" s="23">
         <v>6.8</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>107</v>
       </c>
@@ -15323,7 +15418,7 @@
       <c r="J9">
         <v>10.029999999999999</v>
       </c>
-      <c r="K9" s="28">
+      <c r="K9" s="23">
         <v>1.8</v>
       </c>
       <c r="L9">
@@ -15347,7 +15442,7 @@
       <c r="R9">
         <v>14.36</v>
       </c>
-      <c r="S9" s="28">
+      <c r="S9" s="23">
         <v>3.05</v>
       </c>
       <c r="T9">
@@ -15359,7 +15454,7 @@
       <c r="V9">
         <v>20.67</v>
       </c>
-      <c r="W9" s="28">
+      <c r="W9" s="23">
         <v>2.0299999999999998</v>
       </c>
       <c r="X9">
@@ -15372,7 +15467,7 @@
         <v>55.09</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>107</v>
       </c>
@@ -15452,7 +15547,7 @@
         <v>227.23</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>107</v>
       </c>
@@ -15507,7 +15602,7 @@
       <c r="R11">
         <v>133.08000000000001</v>
       </c>
-      <c r="S11" s="28">
+      <c r="S11" s="23">
         <v>2.94</v>
       </c>
       <c r="T11">
@@ -15532,7 +15627,7 @@
         <v>201.09</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>107</v>
       </c>
@@ -15548,7 +15643,7 @@
       <c r="E12">
         <v>1100.8399999999999</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="24">
         <v>13171.47</v>
       </c>
       <c r="G12">
@@ -15612,7 +15707,7 @@
         <v>480.52</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="15.75" thickBot="1">
+    <row r="13" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>107</v>
       </c>
@@ -15667,7 +15762,7 @@
       <c r="R13">
         <v>70.19</v>
       </c>
-      <c r="S13" s="28">
+      <c r="S13" s="23">
         <v>7.04</v>
       </c>
       <c r="T13">
@@ -15692,7 +15787,7 @@
         <v>269.43</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>111</v>
       </c>
@@ -15772,7 +15867,7 @@
         <v>413.9</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>111</v>
       </c>
@@ -15791,7 +15886,7 @@
       <c r="F15">
         <v>24.31</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="23">
         <v>0.21</v>
       </c>
       <c r="H15">
@@ -15800,19 +15895,19 @@
       <c r="I15">
         <v>4.18</v>
       </c>
-      <c r="J15" s="28">
+      <c r="J15" s="23">
         <v>0.23</v>
       </c>
-      <c r="K15" s="28">
+      <c r="K15" s="23">
         <v>0.75</v>
       </c>
-      <c r="L15" s="28">
+      <c r="L15" s="23">
         <v>0.41</v>
       </c>
       <c r="M15">
         <v>9.27</v>
       </c>
-      <c r="N15" s="28">
+      <c r="N15" s="23">
         <v>2.72</v>
       </c>
       <c r="O15">
@@ -15821,25 +15916,25 @@
       <c r="P15">
         <v>11.72</v>
       </c>
-      <c r="Q15" s="28">
+      <c r="Q15" s="23">
         <v>1.61</v>
       </c>
-      <c r="R15" s="28">
+      <c r="R15" s="23">
         <v>0.85</v>
       </c>
-      <c r="S15" s="28">
+      <c r="S15" s="23">
         <v>3.05</v>
       </c>
       <c r="T15">
         <v>12.4</v>
       </c>
-      <c r="U15" s="28">
+      <c r="U15" s="23">
         <v>2.4500000000000002</v>
       </c>
       <c r="V15">
         <v>3.27</v>
       </c>
-      <c r="W15" s="28">
+      <c r="W15" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="X15">
@@ -15848,11 +15943,11 @@
       <c r="Y15">
         <v>8.64</v>
       </c>
-      <c r="Z15" s="28">
+      <c r="Z15" s="23">
         <v>6.8</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>111</v>
       </c>
@@ -15865,34 +15960,34 @@
       <c r="D16">
         <v>7.08</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="25">
         <v>0.35</v>
       </c>
       <c r="F16">
         <v>12.59</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="23">
         <v>0.6</v>
       </c>
       <c r="H16">
         <v>8.58</v>
       </c>
-      <c r="I16" s="28">
+      <c r="I16" s="23">
         <v>0.43</v>
       </c>
-      <c r="J16" s="28">
+      <c r="J16" s="23">
         <v>1.87</v>
       </c>
-      <c r="K16" s="28">
+      <c r="K16" s="23">
         <v>0.75</v>
       </c>
-      <c r="L16" s="28">
+      <c r="L16" s="23">
         <v>0.8</v>
       </c>
-      <c r="M16" s="28">
+      <c r="M16" s="23">
         <v>1.03</v>
       </c>
-      <c r="N16" s="28">
+      <c r="N16" s="23">
         <v>3.2</v>
       </c>
       <c r="O16">
@@ -15901,25 +15996,25 @@
       <c r="P16">
         <v>7.21</v>
       </c>
-      <c r="Q16" s="28">
+      <c r="Q16" s="23">
         <v>1.19</v>
       </c>
-      <c r="R16" s="28">
+      <c r="R16" s="23">
         <v>0.2</v>
       </c>
-      <c r="S16" s="28">
+      <c r="S16" s="23">
         <v>3.05</v>
       </c>
       <c r="T16">
         <v>3.35</v>
       </c>
-      <c r="U16" s="28">
+      <c r="U16" s="23">
         <v>2.4500000000000002</v>
       </c>
-      <c r="V16" s="28">
+      <c r="V16" s="23">
         <v>0.8</v>
       </c>
-      <c r="W16" s="28">
+      <c r="W16" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="X16">
@@ -15928,11 +16023,11 @@
       <c r="Y16">
         <v>8.64</v>
       </c>
-      <c r="Z16" s="28">
+      <c r="Z16" s="23">
         <v>6.8</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>111</v>
       </c>
@@ -16012,7 +16107,7 @@
         <v>223.38</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>109</v>
       </c>
@@ -16067,7 +16162,7 @@
       <c r="R18">
         <v>84.95</v>
       </c>
-      <c r="S18" s="28">
+      <c r="S18" s="23">
         <v>8.75</v>
       </c>
       <c r="T18">
@@ -16092,7 +16187,7 @@
         <v>384.48</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>109</v>
       </c>
@@ -16147,7 +16242,7 @@
       <c r="R19">
         <v>128.21</v>
       </c>
-      <c r="S19" s="28">
+      <c r="S19" s="23">
         <v>11.83</v>
       </c>
       <c r="T19">
@@ -16172,7 +16267,7 @@
         <v>302.5</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>109</v>
       </c>
@@ -16227,7 +16322,7 @@
       <c r="R20">
         <v>93.31</v>
       </c>
-      <c r="S20" s="28">
+      <c r="S20" s="23">
         <v>3.18</v>
       </c>
       <c r="T20">
@@ -16252,7 +16347,7 @@
         <v>219.5</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15.75" thickBot="1">
+    <row r="21" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>112</v>
       </c>
@@ -16332,7 +16427,7 @@
         <v>327.61</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>110</v>
       </c>
@@ -16412,7 +16507,7 @@
         <v>252.36</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -16467,7 +16562,7 @@
       <c r="R23">
         <v>93.22</v>
       </c>
-      <c r="S23" s="28">
+      <c r="S23" s="23">
         <v>10.61</v>
       </c>
       <c r="T23">
@@ -16492,7 +16587,7 @@
         <v>184.81</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>110</v>
       </c>
@@ -16511,7 +16606,7 @@
       <c r="F24">
         <v>343.34</v>
       </c>
-      <c r="G24" s="28">
+      <c r="G24" s="23">
         <v>1.95</v>
       </c>
       <c r="H24">
@@ -16547,7 +16642,7 @@
       <c r="R24">
         <v>44.1</v>
       </c>
-      <c r="S24" s="28">
+      <c r="S24" s="23">
         <v>0.85</v>
       </c>
       <c r="T24">
@@ -16572,7 +16667,7 @@
         <v>103.45</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>110</v>
       </c>
@@ -16627,7 +16722,7 @@
       <c r="R25">
         <v>84.03</v>
       </c>
-      <c r="S25" s="28">
+      <c r="S25" s="23">
         <v>3.66</v>
       </c>
       <c r="T25">
@@ -16652,7 +16747,7 @@
         <v>302.5</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>110</v>
       </c>
@@ -16671,7 +16766,7 @@
       <c r="F26">
         <v>22.04</v>
       </c>
-      <c r="G26" s="28">
+      <c r="G26" s="23">
         <v>0.6</v>
       </c>
       <c r="H26">
@@ -16680,19 +16775,19 @@
       <c r="I26">
         <v>11.94</v>
       </c>
-      <c r="J26" s="28">
+      <c r="J26" s="23">
         <v>3.42</v>
       </c>
-      <c r="K26" s="28">
+      <c r="K26" s="23">
         <v>0.28999999999999998</v>
       </c>
-      <c r="L26" s="28">
+      <c r="L26" s="23">
         <v>0.8</v>
       </c>
       <c r="M26">
         <v>6.54</v>
       </c>
-      <c r="N26" s="28">
+      <c r="N26" s="23">
         <v>2.72</v>
       </c>
       <c r="O26">
@@ -16701,25 +16796,25 @@
       <c r="P26">
         <v>12.13</v>
       </c>
-      <c r="Q26" s="28">
+      <c r="Q26" s="23">
         <v>0.3</v>
       </c>
-      <c r="R26" s="28">
+      <c r="R26" s="23">
         <v>1.22</v>
       </c>
-      <c r="S26" s="28">
+      <c r="S26" s="23">
         <v>3.05</v>
       </c>
       <c r="T26">
         <v>12.84</v>
       </c>
-      <c r="U26" s="28">
+      <c r="U26" s="23">
         <v>2.4500000000000002</v>
       </c>
-      <c r="V26" s="28">
+      <c r="V26" s="23">
         <v>2.08</v>
       </c>
-      <c r="W26" s="28">
+      <c r="W26" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="X26">
@@ -16728,11 +16823,11 @@
       <c r="Y26">
         <v>4.32</v>
       </c>
-      <c r="Z26" s="28">
+      <c r="Z26" s="23">
         <v>6.8</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>110</v>
       </c>
@@ -16812,7 +16907,7 @@
         <v>529.84</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>107</v>
       </c>
@@ -16825,34 +16920,34 @@
       <c r="D28">
         <v>7.87</v>
       </c>
-      <c r="E28" s="30">
+      <c r="E28" s="25">
         <v>0.03</v>
       </c>
-      <c r="F28" s="31">
+      <c r="F28" s="26">
         <v>7.48</v>
       </c>
-      <c r="G28" s="28">
+      <c r="G28" s="23">
         <v>0.06</v>
       </c>
       <c r="H28">
         <v>13.75</v>
       </c>
-      <c r="I28" s="28">
+      <c r="I28" s="23">
         <v>1.05</v>
       </c>
       <c r="J28">
         <v>19.16</v>
       </c>
-      <c r="K28" s="28">
+      <c r="K28" s="23">
         <v>1.8</v>
       </c>
-      <c r="L28" s="28">
+      <c r="L28" s="23">
         <v>0.8</v>
       </c>
-      <c r="M28" s="28">
+      <c r="M28" s="23">
         <v>0.02</v>
       </c>
-      <c r="N28" s="28">
+      <c r="N28" s="23">
         <v>3.2</v>
       </c>
       <c r="O28">
@@ -16861,25 +16956,25 @@
       <c r="P28">
         <v>12.13</v>
       </c>
-      <c r="Q28" s="28">
+      <c r="Q28" s="23">
         <v>1.4</v>
       </c>
-      <c r="R28" s="28">
+      <c r="R28" s="23">
         <v>0.34</v>
       </c>
-      <c r="S28" s="28">
+      <c r="S28" s="23">
         <v>3.05</v>
       </c>
       <c r="T28">
         <v>3</v>
       </c>
-      <c r="U28" s="28">
+      <c r="U28" s="23">
         <v>3.97</v>
       </c>
-      <c r="V28" s="28">
+      <c r="V28" s="23">
         <v>0.8</v>
       </c>
-      <c r="W28" s="28">
+      <c r="W28" s="23">
         <v>0.19</v>
       </c>
       <c r="X28">
@@ -16892,7 +16987,7 @@
         <v>15.09</v>
       </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -16911,7 +17006,7 @@
       <c r="F29">
         <v>782.13</v>
       </c>
-      <c r="G29" s="28">
+      <c r="G29" s="23">
         <v>1.38</v>
       </c>
       <c r="H29">
@@ -16941,13 +17036,13 @@
       <c r="P29">
         <v>17.86</v>
       </c>
-      <c r="Q29" s="28">
+      <c r="Q29" s="23">
         <v>2.02</v>
       </c>
       <c r="R29">
         <v>26.55</v>
       </c>
-      <c r="S29" s="28">
+      <c r="S29" s="23">
         <v>3.05</v>
       </c>
       <c r="T29">
@@ -16959,7 +17054,7 @@
       <c r="V29">
         <v>19.510000000000002</v>
       </c>
-      <c r="W29" s="28">
+      <c r="W29" s="23">
         <v>0.19</v>
       </c>
       <c r="X29">
@@ -16972,7 +17067,7 @@
         <v>50.82</v>
       </c>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>107</v>
       </c>
@@ -17027,7 +17122,7 @@
       <c r="R30">
         <v>55.52</v>
       </c>
-      <c r="S30" s="28">
+      <c r="S30" s="23">
         <v>10.199999999999999</v>
       </c>
       <c r="T30">
@@ -17052,7 +17147,7 @@
         <v>123.07</v>
       </c>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>107</v>
       </c>
@@ -17083,7 +17178,7 @@
       <c r="J31">
         <v>65.510000000000005</v>
       </c>
-      <c r="K31" s="28">
+      <c r="K31" s="23">
         <v>1.8</v>
       </c>
       <c r="L31">
@@ -17107,7 +17202,7 @@
       <c r="R31">
         <v>47.18</v>
       </c>
-      <c r="S31" s="28">
+      <c r="S31" s="23">
         <v>1.68</v>
       </c>
       <c r="T31">
@@ -17132,7 +17227,7 @@
         <v>106.8</v>
       </c>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>107</v>
       </c>
@@ -17148,7 +17243,7 @@
       <c r="E32">
         <v>1971.39</v>
       </c>
-      <c r="F32" s="29">
+      <c r="F32" s="24">
         <v>10640.47</v>
       </c>
       <c r="G32">
@@ -17212,7 +17307,7 @@
         <v>515.51</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="15.75" thickBot="1">
+    <row r="33" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>107</v>
       </c>
@@ -17231,10 +17326,10 @@
       <c r="F33">
         <v>341.38</v>
       </c>
-      <c r="G33" s="28">
+      <c r="G33" s="23">
         <v>0.06</v>
       </c>
-      <c r="H33" s="28">
+      <c r="H33" s="23">
         <v>1.2</v>
       </c>
       <c r="I33">
@@ -17243,10 +17338,10 @@
       <c r="J33">
         <v>22.6</v>
       </c>
-      <c r="K33" s="28">
+      <c r="K33" s="23">
         <v>2.2400000000000002</v>
       </c>
-      <c r="L33" s="28">
+      <c r="L33" s="23">
         <v>2.2200000000000002</v>
       </c>
       <c r="M33">
@@ -17261,13 +17356,13 @@
       <c r="P33">
         <v>16.97</v>
       </c>
-      <c r="Q33" s="28">
+      <c r="Q33" s="23">
         <v>1.19</v>
       </c>
       <c r="R33">
         <v>9.1</v>
       </c>
-      <c r="S33" s="28">
+      <c r="S33" s="23">
         <v>3.05</v>
       </c>
       <c r="T33">
@@ -17279,7 +17374,7 @@
       <c r="V33">
         <v>20.28</v>
       </c>
-      <c r="W33" s="28">
+      <c r="W33" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="X33">
@@ -17292,7 +17387,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>111</v>
       </c>
@@ -17347,7 +17442,7 @@
       <c r="R34">
         <v>81.84</v>
       </c>
-      <c r="S34" s="28">
+      <c r="S34" s="23">
         <v>5.05</v>
       </c>
       <c r="T34">
@@ -17372,7 +17467,7 @@
         <v>193.01</v>
       </c>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>111</v>
       </c>
@@ -17391,7 +17486,7 @@
       <c r="F35">
         <v>1059.02</v>
       </c>
-      <c r="G35" s="28">
+      <c r="G35" s="23">
         <v>2.1</v>
       </c>
       <c r="H35">
@@ -17427,7 +17522,7 @@
       <c r="R35">
         <v>69.66</v>
       </c>
-      <c r="S35" s="28">
+      <c r="S35" s="23">
         <v>5.95</v>
       </c>
       <c r="T35">
@@ -17452,7 +17547,7 @@
         <v>176.49</v>
       </c>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>111</v>
       </c>
@@ -17507,7 +17602,7 @@
       <c r="R36">
         <v>145.27000000000001</v>
       </c>
-      <c r="S36" s="28">
+      <c r="S36" s="23">
         <v>10</v>
       </c>
       <c r="T36">
@@ -17532,7 +17627,7 @@
         <v>318.56</v>
       </c>
     </row>
-    <row r="37" spans="1:26">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>111</v>
       </c>
@@ -17551,7 +17646,7 @@
       <c r="F37">
         <v>1180.8499999999999</v>
       </c>
-      <c r="G37" s="28">
+      <c r="G37" s="23">
         <v>2.2400000000000002</v>
       </c>
       <c r="H37">
@@ -17587,7 +17682,7 @@
       <c r="R37">
         <v>39.89</v>
       </c>
-      <c r="S37" s="28">
+      <c r="S37" s="23">
         <v>4.59</v>
       </c>
       <c r="T37">
@@ -17612,7 +17707,7 @@
         <v>155.03</v>
       </c>
     </row>
-    <row r="38" spans="1:26">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>109</v>
       </c>
@@ -17628,7 +17723,7 @@
       <c r="E38">
         <v>5942.29</v>
       </c>
-      <c r="F38" s="29">
+      <c r="F38" s="24">
         <v>15539.91</v>
       </c>
       <c r="G38">
@@ -17692,7 +17787,7 @@
         <v>605.04999999999995</v>
       </c>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>109</v>
       </c>
@@ -17708,7 +17803,7 @@
       <c r="E39">
         <v>1731.88</v>
       </c>
-      <c r="F39" s="29">
+      <c r="F39" s="24">
         <v>10437.790000000001</v>
       </c>
       <c r="G39">
@@ -17772,7 +17867,7 @@
         <v>559.97</v>
       </c>
     </row>
-    <row r="40" spans="1:26" ht="15.75" thickBot="1">
+    <row r="40" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>112</v>
       </c>
@@ -17827,7 +17922,7 @@
       <c r="R40">
         <v>230.44</v>
       </c>
-      <c r="S40" s="28">
+      <c r="S40" s="23">
         <v>9.58</v>
       </c>
       <c r="T40">
@@ -17852,7 +17947,7 @@
         <v>290.83999999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:26">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>110</v>
       </c>
@@ -17907,7 +18002,7 @@
       <c r="R41">
         <v>110.81</v>
       </c>
-      <c r="S41" s="28">
+      <c r="S41" s="23">
         <v>8.11</v>
       </c>
       <c r="T41">
@@ -17932,7 +18027,7 @@
         <v>198.41</v>
       </c>
     </row>
-    <row r="42" spans="1:26">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>110</v>
       </c>
@@ -18012,7 +18107,7 @@
         <v>220.8</v>
       </c>
     </row>
-    <row r="43" spans="1:26">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>110</v>
       </c>
@@ -18092,7 +18187,7 @@
         <v>254.82</v>
       </c>
     </row>
-    <row r="44" spans="1:26">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>110</v>
       </c>
@@ -18147,7 +18242,7 @@
       <c r="R44">
         <v>191.44</v>
       </c>
-      <c r="S44" s="28">
+      <c r="S44" s="23">
         <v>11.43</v>
       </c>
       <c r="T44">
@@ -18172,7 +18267,7 @@
         <v>297.86</v>
       </c>
     </row>
-    <row r="45" spans="1:26">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>110</v>
       </c>
@@ -18227,7 +18322,7 @@
       <c r="R45">
         <v>85</v>
       </c>
-      <c r="S45" s="28">
+      <c r="S45" s="23">
         <v>9.7899999999999991</v>
       </c>
       <c r="T45">
@@ -18252,7 +18347,7 @@
         <v>203.75</v>
       </c>
     </row>
-    <row r="46" spans="1:26">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>110</v>
       </c>
@@ -18268,7 +18363,7 @@
       <c r="E46">
         <v>1109.52</v>
       </c>
-      <c r="F46" s="29">
+      <c r="F46" s="24">
         <v>10217.129999999999</v>
       </c>
       <c r="G46">
@@ -18332,7 +18427,7 @@
         <v>619.51</v>
       </c>
     </row>
-    <row r="47" spans="1:26">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>107</v>
       </c>
@@ -18387,7 +18482,7 @@
       <c r="R47">
         <v>38.71</v>
       </c>
-      <c r="S47" s="28">
+      <c r="S47" s="23">
         <v>8.11</v>
       </c>
       <c r="T47">
@@ -18412,7 +18507,7 @@
         <v>67.28</v>
       </c>
     </row>
-    <row r="48" spans="1:26">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>107</v>
       </c>
@@ -18492,7 +18587,7 @@
         <v>308.27</v>
       </c>
     </row>
-    <row r="49" spans="1:26">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>107</v>
       </c>
@@ -18547,7 +18642,7 @@
       <c r="R49">
         <v>27.1</v>
       </c>
-      <c r="S49" s="28">
+      <c r="S49" s="23">
         <v>9.7899999999999991</v>
       </c>
       <c r="T49">
@@ -18572,7 +18667,7 @@
         <v>150.62</v>
       </c>
     </row>
-    <row r="50" spans="1:26">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>107</v>
       </c>
@@ -18652,7 +18747,7 @@
         <v>293.19</v>
       </c>
     </row>
-    <row r="51" spans="1:26">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>107</v>
       </c>
@@ -18668,7 +18763,7 @@
       <c r="E51">
         <v>1594.51</v>
       </c>
-      <c r="F51" s="29">
+      <c r="F51" s="24">
         <v>11931.18</v>
       </c>
       <c r="G51">
@@ -18732,7 +18827,7 @@
         <v>637.41999999999996</v>
       </c>
     </row>
-    <row r="52" spans="1:26" ht="15.75" thickBot="1">
+    <row r="52" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>107</v>
       </c>
@@ -18748,7 +18843,7 @@
       <c r="E52">
         <v>2005.12</v>
       </c>
-      <c r="F52" s="29">
+      <c r="F52" s="24">
         <v>10744.32</v>
       </c>
       <c r="G52">
@@ -18812,7 +18907,7 @@
         <v>511.66</v>
       </c>
     </row>
-    <row r="53" spans="1:26">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>111</v>
       </c>
@@ -18892,7 +18987,7 @@
         <v>413.9</v>
       </c>
     </row>
-    <row r="54" spans="1:26">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>111</v>
       </c>
@@ -18911,7 +19006,7 @@
       <c r="F54">
         <v>501.25</v>
       </c>
-      <c r="G54" s="28">
+      <c r="G54" s="23">
         <v>1.81</v>
       </c>
       <c r="H54">
@@ -18947,7 +19042,7 @@
       <c r="R54">
         <v>87.38</v>
       </c>
-      <c r="S54" s="28">
+      <c r="S54" s="23">
         <v>1.68</v>
       </c>
       <c r="T54">
@@ -18972,7 +19067,7 @@
         <v>140.13</v>
       </c>
     </row>
-    <row r="55" spans="1:26">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>111</v>
       </c>
@@ -19052,7 +19147,7 @@
         <v>252.36</v>
       </c>
     </row>
-    <row r="56" spans="1:26">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>111</v>
       </c>
@@ -19132,7 +19227,7 @@
         <v>293.19</v>
       </c>
     </row>
-    <row r="57" spans="1:26">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>109</v>
       </c>
@@ -19212,7 +19307,7 @@
         <v>405.57</v>
       </c>
     </row>
-    <row r="58" spans="1:26">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>109</v>
       </c>
@@ -19292,7 +19387,7 @@
         <v>193.01</v>
       </c>
     </row>
-    <row r="59" spans="1:26">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>109</v>
       </c>
@@ -19372,7 +19467,7 @@
         <v>566.49</v>
       </c>
     </row>
-    <row r="60" spans="1:26" ht="15.75" thickBot="1">
+    <row r="60" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>112</v>
       </c>
@@ -19452,7 +19547,7 @@
         <v>411.82</v>
       </c>
     </row>
-    <row r="61" spans="1:26">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>110</v>
       </c>
@@ -19471,10 +19566,10 @@
       <c r="F61">
         <v>109.32</v>
       </c>
-      <c r="G61" s="28">
+      <c r="G61" s="23">
         <v>0.6</v>
       </c>
-      <c r="H61" s="28">
+      <c r="H61" s="23">
         <v>1.2</v>
       </c>
       <c r="I61">
@@ -19483,7 +19578,7 @@
       <c r="J61">
         <v>56.46</v>
       </c>
-      <c r="K61" s="28">
+      <c r="K61" s="23">
         <v>1.34</v>
       </c>
       <c r="L61">
@@ -19495,31 +19590,31 @@
       <c r="N61">
         <v>185.13</v>
       </c>
-      <c r="O61" s="28">
+      <c r="O61" s="23">
         <v>0.75</v>
       </c>
       <c r="P61">
         <v>31.06</v>
       </c>
-      <c r="Q61" s="28">
+      <c r="Q61" s="23">
         <v>0.25</v>
       </c>
       <c r="R61">
         <v>3.33</v>
       </c>
-      <c r="S61" s="28">
+      <c r="S61" s="23">
         <v>3.05</v>
       </c>
       <c r="T61">
         <v>18.03</v>
       </c>
-      <c r="U61" s="28">
+      <c r="U61" s="23">
         <v>2.4500000000000002</v>
       </c>
-      <c r="V61" s="28">
+      <c r="V61" s="23">
         <v>2.08</v>
       </c>
-      <c r="W61" s="28">
+      <c r="W61" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="X61">
@@ -19528,11 +19623,11 @@
       <c r="Y61">
         <v>14.91</v>
       </c>
-      <c r="Z61" s="28">
+      <c r="Z61" s="23">
         <v>6.8</v>
       </c>
     </row>
-    <row r="62" spans="1:26">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>110</v>
       </c>
@@ -19551,7 +19646,7 @@
       <c r="F62">
         <v>526.08000000000004</v>
       </c>
-      <c r="G62" s="28">
+      <c r="G62" s="23">
         <v>0.21</v>
       </c>
       <c r="H62">
@@ -19587,7 +19682,7 @@
       <c r="R62">
         <v>18.399999999999999</v>
       </c>
-      <c r="S62" s="28">
+      <c r="S62" s="23">
         <v>3.05</v>
       </c>
       <c r="T62">
@@ -19599,7 +19694,7 @@
       <c r="V62">
         <v>20.28</v>
       </c>
-      <c r="W62" s="28">
+      <c r="W62" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="X62">
@@ -19612,7 +19707,7 @@
         <v>89.61</v>
       </c>
     </row>
-    <row r="63" spans="1:26">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>110</v>
       </c>
@@ -19631,10 +19726,10 @@
       <c r="F63">
         <v>38.590000000000003</v>
       </c>
-      <c r="G63" s="28">
+      <c r="G63" s="23">
         <v>0.6</v>
       </c>
-      <c r="H63" s="28">
+      <c r="H63" s="23">
         <v>1.2</v>
       </c>
       <c r="I63">
@@ -19643,7 +19738,7 @@
       <c r="J63">
         <v>57.11</v>
       </c>
-      <c r="K63" s="28">
+      <c r="K63" s="23">
         <v>1.1000000000000001</v>
       </c>
       <c r="L63">
@@ -19655,31 +19750,31 @@
       <c r="N63">
         <v>137.06</v>
       </c>
-      <c r="O63" s="28">
+      <c r="O63" s="23">
         <v>0.75</v>
       </c>
       <c r="P63">
         <v>26.78</v>
       </c>
-      <c r="Q63" s="28">
+      <c r="Q63" s="23">
         <v>0.25</v>
       </c>
       <c r="R63">
         <v>5</v>
       </c>
-      <c r="S63" s="28">
+      <c r="S63" s="23">
         <v>3.05</v>
       </c>
       <c r="T63">
         <v>59.86</v>
       </c>
-      <c r="U63" s="28">
+      <c r="U63" s="23">
         <v>2.4500000000000002</v>
       </c>
-      <c r="V63" s="28">
+      <c r="V63" s="23">
         <v>0.8</v>
       </c>
-      <c r="W63" s="28">
+      <c r="W63" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="X63">
@@ -19688,11 +19783,11 @@
       <c r="Y63">
         <v>25.06</v>
       </c>
-      <c r="Z63" s="28">
+      <c r="Z63" s="23">
         <v>6.8</v>
       </c>
     </row>
-    <row r="64" spans="1:26">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>110</v>
       </c>
@@ -19711,7 +19806,7 @@
       <c r="F64">
         <v>243.32</v>
       </c>
-      <c r="G64" s="28">
+      <c r="G64" s="23">
         <v>0.21</v>
       </c>
       <c r="H64">
@@ -19747,7 +19842,7 @@
       <c r="R64">
         <v>8.25</v>
       </c>
-      <c r="S64" s="28">
+      <c r="S64" s="23">
         <v>3.05</v>
       </c>
       <c r="T64">
@@ -19759,7 +19854,7 @@
       <c r="V64">
         <v>4.26</v>
       </c>
-      <c r="W64" s="28">
+      <c r="W64" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="X64">
@@ -19772,7 +19867,7 @@
         <v>50.82</v>
       </c>
     </row>
-    <row r="65" spans="1:26">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>110</v>
       </c>
@@ -19791,7 +19886,7 @@
       <c r="F65">
         <v>513.16</v>
       </c>
-      <c r="G65" s="28">
+      <c r="G65" s="23">
         <v>0.51</v>
       </c>
       <c r="H65">
@@ -19827,7 +19922,7 @@
       <c r="R65">
         <v>22.64</v>
       </c>
-      <c r="S65" s="28">
+      <c r="S65" s="23">
         <v>3.05</v>
       </c>
       <c r="T65">
@@ -19839,7 +19934,7 @@
       <c r="V65">
         <v>44.15</v>
       </c>
-      <c r="W65" s="28">
+      <c r="W65" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="X65">
@@ -19852,7 +19947,7 @@
         <v>110.12</v>
       </c>
     </row>
-    <row r="66" spans="1:26">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>110</v>
       </c>
@@ -19932,7 +20027,7 @@
         <v>244.92</v>
       </c>
     </row>
-    <row r="67" spans="1:26">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>107</v>
       </c>
@@ -19951,7 +20046,7 @@
       <c r="F67">
         <v>970.18</v>
       </c>
-      <c r="G67" s="28">
+      <c r="G67" s="23">
         <v>1.1000000000000001</v>
       </c>
       <c r="H67">
@@ -19987,7 +20082,7 @@
       <c r="R67">
         <v>28.84</v>
       </c>
-      <c r="S67" s="28">
+      <c r="S67" s="23">
         <v>11.43</v>
       </c>
       <c r="T67">
@@ -19999,7 +20094,7 @@
       <c r="V67">
         <v>28.63</v>
       </c>
-      <c r="W67" s="28">
+      <c r="W67" s="23">
         <v>1.62</v>
       </c>
       <c r="X67">
@@ -20012,7 +20107,7 @@
         <v>110.12</v>
       </c>
     </row>
-    <row r="68" spans="1:26">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>107</v>
       </c>
@@ -20031,10 +20126,10 @@
       <c r="F68">
         <v>84.19</v>
       </c>
-      <c r="G68" s="28">
+      <c r="G68" s="23">
         <v>0.6</v>
       </c>
-      <c r="H68" s="28">
+      <c r="H68" s="23">
         <v>1.2</v>
       </c>
       <c r="I68">
@@ -20043,7 +20138,7 @@
       <c r="J68">
         <v>23.28</v>
       </c>
-      <c r="K68" s="28">
+      <c r="K68" s="23">
         <v>2.2400000000000002</v>
       </c>
       <c r="L68">
@@ -20061,25 +20156,25 @@
       <c r="P68">
         <v>19.809999999999999</v>
       </c>
-      <c r="Q68" s="28">
+      <c r="Q68" s="23">
         <v>0.25</v>
       </c>
       <c r="R68">
         <v>3.38</v>
       </c>
-      <c r="S68" s="28">
+      <c r="S68" s="23">
         <v>3.05</v>
       </c>
       <c r="T68">
         <v>31.42</v>
       </c>
-      <c r="U68" s="28">
+      <c r="U68" s="23">
         <v>2.4500000000000002</v>
       </c>
       <c r="V68">
         <v>3.27</v>
       </c>
-      <c r="W68" s="28">
+      <c r="W68" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="X68">
@@ -20088,11 +20183,11 @@
       <c r="Y68">
         <v>34.97</v>
       </c>
-      <c r="Z68" s="28">
+      <c r="Z68" s="23">
         <v>6.8</v>
       </c>
     </row>
-    <row r="69" spans="1:26">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>107</v>
       </c>
@@ -20111,7 +20206,7 @@
       <c r="F69">
         <v>243.32</v>
       </c>
-      <c r="G69" s="28">
+      <c r="G69" s="23">
         <v>0.6</v>
       </c>
       <c r="H69">
@@ -20141,13 +20236,13 @@
       <c r="P69">
         <v>37.18</v>
       </c>
-      <c r="Q69" s="28">
+      <c r="Q69" s="23">
         <v>1.19</v>
       </c>
       <c r="R69">
         <v>6.31</v>
       </c>
-      <c r="S69" s="28">
+      <c r="S69" s="23">
         <v>3.05</v>
       </c>
       <c r="T69">
@@ -20159,7 +20254,7 @@
       <c r="V69">
         <v>5.92</v>
       </c>
-      <c r="W69" s="28">
+      <c r="W69" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="X69">
@@ -20168,11 +20263,11 @@
       <c r="Y69">
         <v>34.97</v>
       </c>
-      <c r="Z69" s="28">
+      <c r="Z69" s="23">
         <v>6.8</v>
       </c>
     </row>
-    <row r="70" spans="1:26">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>107</v>
       </c>
@@ -20191,7 +20286,7 @@
       <c r="F70">
         <v>46.06</v>
       </c>
-      <c r="G70" s="28">
+      <c r="G70" s="23">
         <v>1.24</v>
       </c>
       <c r="H70">
@@ -20203,7 +20298,7 @@
       <c r="J70">
         <v>40.729999999999997</v>
       </c>
-      <c r="K70" s="28">
+      <c r="K70" s="23">
         <v>1.34</v>
       </c>
       <c r="L70">
@@ -20227,7 +20322,7 @@
       <c r="R70">
         <v>11.62</v>
       </c>
-      <c r="S70" s="28">
+      <c r="S70" s="23">
         <v>3.05</v>
       </c>
       <c r="T70">
@@ -20239,7 +20334,7 @@
       <c r="V70">
         <v>28.47</v>
       </c>
-      <c r="W70" s="28">
+      <c r="W70" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="X70">
@@ -20252,7 +20347,7 @@
         <v>50.82</v>
       </c>
     </row>
-    <row r="71" spans="1:26">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>107</v>
       </c>
@@ -20271,7 +20366,7 @@
       <c r="F71">
         <v>70.97</v>
       </c>
-      <c r="G71" s="28">
+      <c r="G71" s="23">
         <v>0.21</v>
       </c>
       <c r="H71">
@@ -20301,13 +20396,13 @@
       <c r="P71">
         <v>94.56</v>
       </c>
-      <c r="Q71" s="28">
+      <c r="Q71" s="23">
         <v>1.61</v>
       </c>
       <c r="R71">
         <v>12.35</v>
       </c>
-      <c r="S71" s="28">
+      <c r="S71" s="23">
         <v>3.05</v>
       </c>
       <c r="T71">
@@ -20319,7 +20414,7 @@
       <c r="V71">
         <v>36.26</v>
       </c>
-      <c r="W71" s="28">
+      <c r="W71" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="X71">
@@ -20332,7 +20427,7 @@
         <v>32.18</v>
       </c>
     </row>
-    <row r="72" spans="1:26" ht="15.75" thickBot="1">
+    <row r="72" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>107</v>
       </c>
@@ -20351,10 +20446,10 @@
       <c r="F72">
         <v>594.85</v>
       </c>
-      <c r="G72" s="28">
+      <c r="G72" s="23">
         <v>0.6</v>
       </c>
-      <c r="H72" s="28">
+      <c r="H72" s="23">
         <v>1.2</v>
       </c>
       <c r="I72">
@@ -20375,19 +20470,19 @@
       <c r="N72">
         <v>992.51</v>
       </c>
-      <c r="O72" s="28">
+      <c r="O72" s="23">
         <v>1.1299999999999999</v>
       </c>
       <c r="P72">
         <v>69.3</v>
       </c>
-      <c r="Q72" s="28">
+      <c r="Q72" s="23">
         <v>0.76</v>
       </c>
       <c r="R72">
         <v>15.44</v>
       </c>
-      <c r="S72" s="28">
+      <c r="S72" s="23">
         <v>3.05</v>
       </c>
       <c r="T72">
@@ -20399,7 +20494,7 @@
       <c r="V72">
         <v>9.24</v>
       </c>
-      <c r="W72" s="28">
+      <c r="W72" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="X72">
@@ -20412,7 +20507,7 @@
         <v>59.25</v>
       </c>
     </row>
-    <row r="73" spans="1:26">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>111</v>
       </c>
@@ -20431,7 +20526,7 @@
       <c r="F73">
         <v>626.87</v>
       </c>
-      <c r="G73" s="28">
+      <c r="G73" s="23">
         <v>0.36</v>
       </c>
       <c r="H73">
@@ -20467,7 +20562,7 @@
       <c r="R73">
         <v>27.05</v>
       </c>
-      <c r="S73" s="28">
+      <c r="S73" s="23">
         <v>1.1299999999999999</v>
       </c>
       <c r="T73">
@@ -20479,7 +20574,7 @@
       <c r="V73">
         <v>12.49</v>
       </c>
-      <c r="W73" s="28">
+      <c r="W73" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="X73">
@@ -20492,7 +20587,7 @@
         <v>113.41</v>
       </c>
     </row>
-    <row r="74" spans="1:26">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>111</v>
       </c>
@@ -20511,7 +20606,7 @@
       <c r="F74">
         <v>265.86</v>
       </c>
-      <c r="G74" s="28">
+      <c r="G74" s="23">
         <v>0.21</v>
       </c>
       <c r="H74">
@@ -20547,7 +20642,7 @@
       <c r="R74">
         <v>15.5</v>
       </c>
-      <c r="S74" s="28">
+      <c r="S74" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="T74">
@@ -20559,7 +20654,7 @@
       <c r="V74">
         <v>7.35</v>
       </c>
-      <c r="W74" s="28">
+      <c r="W74" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="X74">
@@ -20572,7 +20667,7 @@
         <v>76.86</v>
       </c>
     </row>
-    <row r="75" spans="1:26">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>111</v>
       </c>
@@ -20591,7 +20686,7 @@
       <c r="F75">
         <v>383.66</v>
       </c>
-      <c r="G75" s="28">
+      <c r="G75" s="23">
         <v>0.66</v>
       </c>
       <c r="H75">
@@ -20627,7 +20722,7 @@
       <c r="R75">
         <v>22.95</v>
       </c>
-      <c r="S75" s="28">
+      <c r="S75" s="23">
         <v>9.3800000000000008</v>
       </c>
       <c r="T75">
@@ -20639,7 +20734,7 @@
       <c r="V75">
         <v>8.01</v>
       </c>
-      <c r="W75" s="28">
+      <c r="W75" s="23">
         <v>0.19</v>
       </c>
       <c r="X75">
@@ -20652,7 +20747,7 @@
         <v>106.8</v>
       </c>
     </row>
-    <row r="76" spans="1:26">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>111</v>
       </c>
@@ -20671,7 +20766,7 @@
       <c r="F76">
         <v>302.13</v>
       </c>
-      <c r="G76" s="28">
+      <c r="G76" s="23">
         <v>0.06</v>
       </c>
       <c r="H76">
@@ -20707,7 +20802,7 @@
       <c r="R76">
         <v>20.63</v>
       </c>
-      <c r="S76" s="28">
+      <c r="S76" s="23">
         <v>3.05</v>
       </c>
       <c r="T76">
@@ -20719,7 +20814,7 @@
       <c r="V76">
         <v>44.28</v>
       </c>
-      <c r="W76" s="28">
+      <c r="W76" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="X76">
@@ -20732,7 +20827,7 @@
         <v>84.23</v>
       </c>
     </row>
-    <row r="77" spans="1:26">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>109</v>
       </c>
@@ -20742,7 +20837,7 @@
       <c r="C77" t="s">
         <v>50</v>
       </c>
-      <c r="D77" s="30">
+      <c r="D77" s="25">
         <v>0.83</v>
       </c>
       <c r="E77">
@@ -20751,10 +20846,10 @@
       <c r="F77">
         <v>126.24</v>
       </c>
-      <c r="G77" s="28">
+      <c r="G77" s="23">
         <v>0.6</v>
       </c>
-      <c r="H77" s="28">
+      <c r="H77" s="23">
         <v>1.2</v>
       </c>
       <c r="I77">
@@ -20781,25 +20876,25 @@
       <c r="P77">
         <v>48.15</v>
       </c>
-      <c r="Q77" s="28">
+      <c r="Q77" s="23">
         <v>0.3</v>
       </c>
-      <c r="R77" s="28">
+      <c r="R77" s="23">
         <v>0.27</v>
       </c>
-      <c r="S77" s="28">
+      <c r="S77" s="23">
         <v>3.05</v>
       </c>
       <c r="T77">
         <v>14.12</v>
       </c>
-      <c r="U77" s="28">
+      <c r="U77" s="23">
         <v>2.4500000000000002</v>
       </c>
       <c r="V77">
         <v>28.63</v>
       </c>
-      <c r="W77" s="28">
+      <c r="W77" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="X77">
@@ -20808,11 +20903,11 @@
       <c r="Y77">
         <v>42.79</v>
       </c>
-      <c r="Z77" s="28">
+      <c r="Z77" s="23">
         <v>6.8</v>
       </c>
     </row>
-    <row r="78" spans="1:26">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>109</v>
       </c>
@@ -20831,7 +20926,7 @@
       <c r="F78">
         <v>99.31</v>
       </c>
-      <c r="G78" s="28">
+      <c r="G78" s="23">
         <v>1.24</v>
       </c>
       <c r="H78">
@@ -20843,7 +20938,7 @@
       <c r="J78">
         <v>117.42</v>
       </c>
-      <c r="K78" s="28">
+      <c r="K78" s="23">
         <v>1.8</v>
       </c>
       <c r="L78">
@@ -20867,7 +20962,7 @@
       <c r="R78">
         <v>11.88</v>
       </c>
-      <c r="S78" s="28">
+      <c r="S78" s="23">
         <v>3.05</v>
       </c>
       <c r="T78">
@@ -20879,7 +20974,7 @@
       <c r="V78">
         <v>6.66</v>
       </c>
-      <c r="W78" s="28">
+      <c r="W78" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="X78">
@@ -20892,7 +20987,7 @@
         <v>71.16</v>
       </c>
     </row>
-    <row r="79" spans="1:26">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>109</v>
       </c>
@@ -20911,7 +21006,7 @@
       <c r="F79">
         <v>93.28</v>
       </c>
-      <c r="G79" s="28">
+      <c r="G79" s="23">
         <v>0.6</v>
       </c>
       <c r="H79">
@@ -20947,19 +21042,19 @@
       <c r="R79">
         <v>5.33</v>
       </c>
-      <c r="S79" s="28">
+      <c r="S79" s="23">
         <v>3.05</v>
       </c>
       <c r="T79">
         <v>24.86</v>
       </c>
-      <c r="U79" s="28">
+      <c r="U79" s="23">
         <v>2.4500000000000002</v>
       </c>
-      <c r="V79" s="28">
+      <c r="V79" s="23">
         <v>0.8</v>
       </c>
-      <c r="W79" s="28">
+      <c r="W79" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="X79">
@@ -20972,7 +21067,7 @@
         <v>44.17</v>
       </c>
     </row>
-    <row r="80" spans="1:26">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>112</v>
       </c>
@@ -20991,10 +21086,10 @@
       <c r="F80">
         <v>216.85</v>
       </c>
-      <c r="G80" s="28">
+      <c r="G80" s="23">
         <v>0.6</v>
       </c>
-      <c r="H80" s="28">
+      <c r="H80" s="23">
         <v>1.2</v>
       </c>
       <c r="I80">
@@ -21021,13 +21116,13 @@
       <c r="P80">
         <v>132.02000000000001</v>
       </c>
-      <c r="Q80" s="28">
+      <c r="Q80" s="23">
         <v>0.76</v>
       </c>
       <c r="R80">
         <v>13.38</v>
       </c>
-      <c r="S80" s="28">
+      <c r="S80" s="23">
         <v>3.05</v>
       </c>
       <c r="T80">
@@ -21036,10 +21131,10 @@
       <c r="U80">
         <v>29.62</v>
       </c>
-      <c r="V80" s="28">
+      <c r="V80" s="23">
         <v>2.08</v>
       </c>
-      <c r="W80" s="28">
+      <c r="W80" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="X80">
@@ -21053,7 +21148,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:Z80">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Z80">
     <sortCondition ref="B2:B80"/>
     <sortCondition ref="A2:A80"/>
     <sortCondition ref="C2:C80"/>
@@ -21063,7 +21158,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -21071,27 +21166,27 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23" t="s">
+      <c r="F1" s="27"/>
+      <c r="G1" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="23"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>118</v>
       </c>
@@ -21117,7 +21212,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <f>Sheet1!G2</f>
         <v>13.97</v>
@@ -21151,7 +21246,7 @@
         <v>162.19999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <f>Sheet1!G3</f>
         <v>525.32000000000005</v>
@@ -21185,7 +21280,7 @@
         <v>132.29</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <f>Sheet1!G4</f>
         <v>28.04</v>
@@ -21219,7 +21314,7 @@
         <v>159.87</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <f>Sheet1!G5</f>
         <v>1311.71</v>
@@ -21253,7 +21348,7 @@
         <v>131.6</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <f>Sheet1!G6</f>
         <v>46.96</v>
@@ -21287,7 +21382,7 @@
         <v>39.94</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <f>Sheet1!G7</f>
         <v>0.9</v>
@@ -21321,7 +21416,7 @@
         <v>49.29</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <f>Sheet1!G8</f>
         <v>3.95</v>
@@ -21355,7 +21450,7 @@
         <v>59.19</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <f>Sheet1!G9</f>
         <v>90.84</v>
@@ -21386,7 +21481,7 @@
         <v>103.98</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <f>Sheet1!G10</f>
         <v>260.64</v>
@@ -21408,7 +21503,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <f>Sheet1!G11</f>
         <v>488.49</v>
@@ -21430,7 +21525,7 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <f>Sheet1!G12</f>
         <v>1100.8399999999999</v>
@@ -21452,7 +21547,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <f>Sheet1!G13</f>
         <v>581.66999999999996</v>
@@ -21486,7 +21581,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -21494,27 +21589,27 @@
       <selection sqref="A1:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23" t="s">
+      <c r="F1" s="27"/>
+      <c r="G1" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="23"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>118</v>
       </c>
@@ -21540,7 +21635,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <f>Sheet1!H2</f>
         <v>67.900000000000006</v>
@@ -21574,7 +21669,7 @@
         <v>626.87</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <f>Sheet1!H3</f>
         <v>7053.37</v>
@@ -21608,7 +21703,7 @@
         <v>265.86</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <f>Sheet1!H4</f>
         <v>89.25</v>
@@ -21642,7 +21737,7 @@
         <v>383.66</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <f>Sheet1!H5</f>
         <v>4232.12</v>
@@ -21676,7 +21771,7 @@
         <v>302.13</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <f>Sheet1!H6</f>
         <v>330.58</v>
@@ -21710,7 +21805,7 @@
         <v>126.24</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <f>Sheet1!H7</f>
         <v>0.8</v>
@@ -21744,7 +21839,7 @@
         <v>99.31</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <f>Sheet1!H8</f>
         <v>26.56</v>
@@ -21778,7 +21873,7 @@
         <v>93.28</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <f>Sheet1!H9</f>
         <v>870.7</v>
@@ -21809,7 +21904,7 @@
         <v>216.85</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <f>Sheet1!H10</f>
         <v>4270.1400000000003</v>
@@ -21831,7 +21926,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <f>Sheet1!H11</f>
         <v>1381.02</v>
@@ -21853,7 +21948,7 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <f>Sheet1!H12</f>
         <v>13171.47</v>
@@ -21875,7 +21970,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <f>Sheet1!H13</f>
         <v>5602.42</v>
@@ -21909,7 +22004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -21917,27 +22012,27 @@
       <selection sqref="A1:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23" t="s">
+      <c r="F1" s="27"/>
+      <c r="G1" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="23"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>118</v>
       </c>
@@ -21963,7 +22058,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <f>Sheet1!I2</f>
         <v>0.21</v>
@@ -21997,7 +22092,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <f>Sheet1!I3</f>
         <v>17.36</v>
@@ -22031,7 +22126,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <f>Sheet1!I4</f>
         <v>1.1000000000000001</v>
@@ -22065,7 +22160,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <f>Sheet1!I5</f>
         <v>4.75</v>
@@ -22099,7 +22194,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <f>Sheet1!I6</f>
         <v>1.88</v>
@@ -22133,7 +22228,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <f>Sheet1!I7</f>
         <v>0.6</v>
@@ -22167,7 +22262,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <f>Sheet1!I8</f>
         <v>0.59</v>
@@ -22201,7 +22296,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <f>Sheet1!I9</f>
         <v>2.8</v>
@@ -22232,7 +22327,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <f>Sheet1!I10</f>
         <v>22.16</v>
@@ -22254,7 +22349,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <f>Sheet1!I11</f>
         <v>7.91</v>
@@ -22276,7 +22371,7 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <f>Sheet1!I12</f>
         <v>16.829999999999998</v>
@@ -22298,7 +22393,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <f>Sheet1!I13</f>
         <v>5.38</v>
@@ -22332,7 +22427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -22340,27 +22435,27 @@
       <selection sqref="A1:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23" t="s">
+      <c r="F1" s="27"/>
+      <c r="G1" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="23"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>118</v>
       </c>
@@ -22386,7 +22481,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <f>Sheet1!J2</f>
         <v>1.96</v>
@@ -22420,7 +22515,7 @@
         <v>8.58</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <f>Sheet1!J3</f>
         <v>234.75</v>
@@ -22454,7 +22549,7 @@
         <v>12.01</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <f>Sheet1!J4</f>
         <v>22.57</v>
@@ -22488,7 +22583,7 @@
         <v>8.58</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <f>Sheet1!J5</f>
         <v>106.73</v>
@@ -22522,7 +22617,7 @@
         <v>5.22</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <f>Sheet1!J6</f>
         <v>44.37</v>
@@ -22556,7 +22651,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <f>Sheet1!J7</f>
         <v>1.2</v>
@@ -22590,7 +22685,7 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <f>Sheet1!J8</f>
         <v>15.49</v>
@@ -22624,7 +22719,7 @@
         <v>5.22</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <f>Sheet1!J9</f>
         <v>19.010000000000002</v>
@@ -22655,7 +22750,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <f>Sheet1!J10</f>
         <v>100.96</v>
@@ -22677,7 +22772,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <f>Sheet1!J11</f>
         <v>51.77</v>
@@ -22699,7 +22794,7 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <f>Sheet1!J12</f>
         <v>254.85</v>
@@ -22721,7 +22816,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <f>Sheet1!J13</f>
         <v>48.06</v>
@@ -22755,7 +22850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet24"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -22763,27 +22858,27 @@
       <selection sqref="A1:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23" t="s">
+      <c r="F1" s="27"/>
+      <c r="G1" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="23"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>118</v>
       </c>
@@ -22809,7 +22904,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <f>Sheet1!K2</f>
         <v>15.86</v>
@@ -22843,7 +22938,7 @@
         <v>315.32</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <f>Sheet1!K3</f>
         <v>1408.79</v>
@@ -22877,7 +22972,7 @@
         <v>170.18</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <f>Sheet1!K4</f>
         <v>36.869999999999997</v>
@@ -22911,7 +23006,7 @@
         <v>237.61</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <f>Sheet1!K5</f>
         <v>1289.0899999999999</v>
@@ -22945,7 +23040,7 @@
         <v>447.69</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <f>Sheet1!K6</f>
         <v>81.63</v>
@@ -22979,7 +23074,7 @@
         <v>251.19</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <f>Sheet1!K7</f>
         <v>0.01</v>
@@ -23013,7 +23108,7 @@
         <v>40.94</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <f>Sheet1!K8</f>
         <v>5.29</v>
@@ -23047,7 +23142,7 @@
         <v>167.98</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <f>Sheet1!K9</f>
         <v>392.34</v>
@@ -23078,7 +23173,7 @@
         <v>270.20999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <f>Sheet1!K10</f>
         <v>1521.34</v>
@@ -23100,7 +23195,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <f>Sheet1!K11</f>
         <v>928.49</v>
@@ -23122,7 +23217,7 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <f>Sheet1!K12</f>
         <v>2381.4499999999998</v>
@@ -23144,7 +23239,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <f>Sheet1!K13</f>
         <v>1261.08</v>
@@ -23178,7 +23273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet25"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -23186,27 +23281,27 @@
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23" t="s">
+      <c r="F1" s="27"/>
+      <c r="G1" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="23"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>118</v>
       </c>
@@ -23232,7 +23327,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <f>Sheet1!L2</f>
         <v>1.55</v>
@@ -23266,7 +23361,7 @@
         <v>248.08</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <f>Sheet1!L3</f>
         <v>85.33</v>
@@ -23300,7 +23395,7 @@
         <v>253.49</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <f>Sheet1!L4</f>
         <v>1.87</v>
@@ -23334,7 +23429,7 @@
         <v>179.09</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <f>Sheet1!L5</f>
         <v>111.17</v>
@@ -23368,7 +23463,7 @@
         <v>214.33</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <f>Sheet1!L6</f>
         <v>27.36</v>
@@ -23402,7 +23497,7 @@
         <v>57.76</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <f>Sheet1!L7</f>
         <v>1.55</v>
@@ -23436,7 +23531,7 @@
         <v>117.42</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <f>Sheet1!L8</f>
         <v>3.42</v>
@@ -23470,7 +23565,7 @@
         <v>99.88</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <f>Sheet1!L9</f>
         <v>10.029999999999999</v>
@@ -23501,7 +23596,7 @@
         <v>75.78</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <f>Sheet1!L10</f>
         <v>49.94</v>
@@ -23523,7 +23618,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <f>Sheet1!L11</f>
         <v>52.55</v>
@@ -23545,7 +23640,7 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <f>Sheet1!L12</f>
         <v>124.9</v>
@@ -23567,7 +23662,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <f>Sheet1!L13</f>
         <v>47.32</v>
@@ -23601,7 +23696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -23609,27 +23704,27 @@
       <selection sqref="A1:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23" t="s">
+      <c r="F1" s="27"/>
+      <c r="G1" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="23"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>118</v>
       </c>
@@ -23655,7 +23750,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <f>Sheet1!M2</f>
         <v>0.75</v>
@@ -23689,7 +23784,7 @@
         <v>27.19</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <f>Sheet1!M3</f>
         <v>36.24</v>
@@ -23723,7 +23818,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <f>Sheet1!M4</f>
         <v>0.28999999999999998</v>
@@ -23757,7 +23852,7 @@
         <v>38.89</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <f>Sheet1!M5</f>
         <v>38.130000000000003</v>
@@ -23791,7 +23886,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <f>Sheet1!M6</f>
         <v>6.94</v>
@@ -23825,7 +23920,7 @@
         <v>12.13</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <f>Sheet1!M7</f>
         <v>0.75</v>
@@ -23859,7 +23954,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <f>Sheet1!M8</f>
         <v>0.85</v>
@@ -23893,7 +23988,7 @@
         <v>18.55</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <f>Sheet1!M9</f>
         <v>1.8</v>
@@ -23924,7 +24019,7 @@
         <v>20.43</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <f>Sheet1!M10</f>
         <v>16.670000000000002</v>
@@ -23946,7 +24041,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <f>Sheet1!M11</f>
         <v>2.68</v>
@@ -23968,7 +24063,7 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <f>Sheet1!M12</f>
         <v>226.46</v>
@@ -23990,7 +24085,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <f>Sheet1!M13</f>
         <v>5.95</v>
